--- a/Test Conditions and Expected Results CodingtonPortal.xlsx
+++ b/Test Conditions and Expected Results CodingtonPortal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="11340" windowHeight="8835" tabRatio="422" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="11340" windowHeight="8835" tabRatio="422" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Cover Sheet'!$A$1:$N$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Revision History'!$A$1:$E$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Test Conditions'!$A$1:$E$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Test Conditions'!$A$1:$E$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Test Scenarios'!$A$1:$G$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Test Conditions'!$3:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Test Scenarios'!$A:$B,'Test Scenarios'!$1:$3</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="124">
   <si>
     <t>Definitions</t>
   </si>
@@ -235,44 +235,7 @@
     <t xml:space="preserve">The system masks the content of the confirmation password fields as the user enters it. </t>
   </si>
   <si>
-    <t>System informs the user that the password has failed validation checks.  The user is then required to re-enter the passwords.</t>
-  </si>
-  <si>
-    <t>Alternative flow 6 - Invalid password</t>
-  </si>
-  <si>
     <t>System informs the user that the telephone number is invalid.  The user is then required to  re-enter the telephone number.</t>
-  </si>
-  <si>
-    <t>Alternative flow 7 - Invalid Telephone number</t>
-  </si>
-  <si>
-    <t>System informs the user that the email address is invalid.  The user is then required to  re-enter the email address</t>
-  </si>
-  <si>
-    <t>Alternative flow 8 - Invalid Email Address
-Business Rules B_1.2_022</t>
-  </si>
-  <si>
-    <t>Alternative flow 8 - Invalid Email Address</t>
-  </si>
-  <si>
-    <t>System informs the user that the first name is invalid. The user is required to re-enter their first name.</t>
-  </si>
-  <si>
-    <t>Data_Dictionary - D_004</t>
-  </si>
-  <si>
-    <t>System informs the user that the surname is invalid. The user is required to re-enter their surname.</t>
-  </si>
-  <si>
-    <t>Data_Dictionary - D_005</t>
-  </si>
-  <si>
-    <t>Data_Dictionary - D_006</t>
-  </si>
-  <si>
-    <t>Alternative flow 2 - Address not found</t>
   </si>
   <si>
     <t>1-15</t>
@@ -351,78 +314,9 @@
     <t>Visitor inputs a password into the password field</t>
   </si>
   <si>
-    <t>Visitor leaves "Password" field empty, and submits the request.</t>
-  </si>
-  <si>
-    <t>Visitor leaves "Confirmation Password" field empty, and submits the request.</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid password (between 6 and 15 characters but does not contain a mix of numbers and characters), and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid password (same as the username), and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid password (password entered is less than 6 characters long), and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid password (password entered is greater than 15 characters), and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid telephone number (contains  non-numeric characters), and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid telephone number (telephone number minimum length is less than 10) and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid telephone number (telephone number maximum length is greater than 11)and submits the request</t>
-  </si>
-  <si>
     <t>Visitor inputs all valid fields except for an invalid telephone number (telephone number does not start with zero)and submits the request</t>
   </si>
   <si>
-    <t>Visitor inputs all valid fields except for an invalid telephone number (none specified / empty)and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid email address (local section of email is not in firstname.surname format)and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid email address (none specified/ empty), and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid first name (blank or greater than 30 characters) and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid surname (blank or greater than 30 characters) and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid email address (does not contain a @ character)and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid email address (local section ends with a '.')and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid email address (local section contains an invalid character)and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid email address (local section is blank)and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid email address (domain section is blank)and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor can enter a valid house name/number</t>
-  </si>
-  <si>
-    <t>Visitor can enter a valid street name</t>
-  </si>
-  <si>
-    <t>Visitor can enter a valid town/city</t>
-  </si>
-  <si>
-    <t>Visitor can select a county</t>
-  </si>
-  <si>
     <t>Visitor inputs an existing firstname, the rest of the required fields valid, and submits the request.</t>
   </si>
   <si>
@@ -487,13 +381,143 @@
   </si>
   <si>
     <t>Visitor inputs an email without character "@"</t>
+  </si>
+  <si>
+    <t>Visitor inputs an email without a local and domain section in the form: “local”@domain</t>
+  </si>
+  <si>
+    <t>Visitor inputs an email with a local section  end with a ‘.’</t>
+  </si>
+  <si>
+    <t>Visitor inputs the local section without a character</t>
+  </si>
+  <si>
+    <t>Visitor inputs the domain section without one character</t>
+  </si>
+  <si>
+    <t>Visitor inputs all valid fields except for an invalid phone number (contains  non-numeric characters), and submits the request</t>
+  </si>
+  <si>
+    <t>Visitor inputs all valid fields except for an invalid telephone number (telephone number is less than 10 numeric characters) and submits the request</t>
+  </si>
+  <si>
+    <t>Visitor inputs all valid fields except for an invalid telephone number (telephone number is greater than 20 numeric characters) and submits the request</t>
+  </si>
+  <si>
+    <t>Visitor inputs all valid fields except for an invalid address (addres length is grater than 30 characters)</t>
+  </si>
+  <si>
+    <t>System informs the user that the address is invalid.  The user is then required to  re-enter the address.</t>
+  </si>
+  <si>
+    <t>Visitor inputs all valid fields except for an invalid DNI (format is not XX.XXX.XXX-L)</t>
+  </si>
+  <si>
+    <t>Visitor account</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>The Event screen provides the facility to enter Event Name, Description, Place, Duration, Event type and Seats Avalaible.</t>
+  </si>
+  <si>
+    <t>The Event Regist screen has the following fields to allow the Visitor to enter the required information for their account:
+ Event Name, Description, Place, Duration, Event type and Seats Avalaible.</t>
+  </si>
+  <si>
+    <t>Admin can enter a valid Event Name</t>
+  </si>
+  <si>
+    <t>Admin can enter a valid Description</t>
+  </si>
+  <si>
+    <t>Admin can enter a valid Place</t>
+  </si>
+  <si>
+    <t>Admin can enter a valid Duration</t>
+  </si>
+  <si>
+    <t>Admin can enter a valid Event Type</t>
+  </si>
+  <si>
+    <t>Admin can enter a valid Seats Avalaible</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Event Name is invalid.  The user is then required to  re-enter the Event Name.</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Event Name (Event Name is less than 1 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Event Name (Event Name is greater than 45 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Description (Description is less than 1 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Description is invalid.  The user is then required to  re-enter the Description.</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Description(Description is greater than 45 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Place  (Place is less than 1 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Place is invalid.  The user is then required to  re-enter the Place .</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Place (Place is greater than 45 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Place  is invalid.  The user is then required to  re-enter the Place .</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Duration (Duration is less than 1 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Duration is invalid.  The user is then required to  re-enter the Duration .</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Event Name (Duration is greater than 45 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Duration is invalid.  The user is then required to  re-enter the Duration.</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Event Type  (Event Type is less than 1 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Event Type  is invalid.  The user is then required to  re-enter the Event Type.</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Event Type (Event Type is greater than 45 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Event Type is invalid.  The user is then required to  re-enter the Event Type.</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Seats Avalaible (Seats Avalaible is less than 0 numeric number) and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Seats Avalaible is invalid.  The user is then required to  re-enter the Seats Avalaible.</t>
+  </si>
+  <si>
+    <t>Create or modify Event</t>
+  </si>
+  <si>
+    <t>Visitor want to regist in a Event</t>
+  </si>
+  <si>
+    <t>Visitor select an event and submits the request</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -630,6 +654,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -664,7 +694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,42 +1001,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1014,15 +1008,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1458,7 +1490,7 @@
     </row>
     <row r="9" spans="1:16" ht="18.75">
       <c r="B9" s="37" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="3" customHeight="1">
@@ -1472,136 +1504,136 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="40"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="46"/>
       <c r="N16" s="36"/>
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="46"/>
       <c r="N17" s="36"/>
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="46"/>
       <c r="N18" s="36"/>
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="46"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="36"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="46"/>
       <c r="N20" s="36"/>
       <c r="O20" s="36"/>
       <c r="P20" s="36"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="46"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1681,12 +1713,12 @@
       <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1705,18 +1737,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3997"/>
+  <dimension ref="A1:E3982"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="27" style="12" customWidth="1"/>
     <col min="2" max="2" width="9" style="12" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="12" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="12" customWidth="1"/>
     <col min="5" max="5" width="30.140625" style="12" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="12"/>
@@ -1724,7 +1756,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="27" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27" customHeight="1">
@@ -1745,17 +1777,17 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="102">
-      <c r="A4" s="50" t="s">
-        <v>50</v>
+      <c r="A4" s="38" t="s">
+        <v>38</v>
       </c>
       <c r="B4" s="29">
         <v>1</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>63</v>
       </c>
       <c r="E4" s="32"/>
     </row>
@@ -1764,8 +1796,8 @@
       <c r="B5" s="29">
         <v>2</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>52</v>
+      <c r="C5" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>26</v>
@@ -1777,8 +1809,8 @@
       <c r="B6" s="29">
         <v>3</v>
       </c>
-      <c r="C6" s="51" t="s">
-        <v>53</v>
+      <c r="C6" s="39" t="s">
+        <v>41</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>26</v>
@@ -1790,8 +1822,8 @@
       <c r="B7" s="29">
         <v>4</v>
       </c>
-      <c r="C7" s="51" t="s">
-        <v>54</v>
+      <c r="C7" s="39" t="s">
+        <v>42</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>26</v>
@@ -1803,8 +1835,8 @@
       <c r="B8" s="29">
         <v>5</v>
       </c>
-      <c r="C8" s="51" t="s">
-        <v>55</v>
+      <c r="C8" s="39" t="s">
+        <v>43</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>26</v>
@@ -1816,8 +1848,8 @@
       <c r="B9" s="29">
         <v>6</v>
       </c>
-      <c r="C9" s="51" t="s">
-        <v>56</v>
+      <c r="C9" s="39" t="s">
+        <v>44</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>26</v>
@@ -1829,8 +1861,8 @@
       <c r="B10" s="29">
         <v>7</v>
       </c>
-      <c r="C10" s="51" t="s">
-        <v>57</v>
+      <c r="C10" s="39" t="s">
+        <v>45</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>26</v>
@@ -1842,8 +1874,8 @@
       <c r="B11" s="29">
         <v>8</v>
       </c>
-      <c r="C11" s="51" t="s">
-        <v>59</v>
+      <c r="C11" s="39" t="s">
+        <v>47</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>26</v>
@@ -1855,8 +1887,8 @@
       <c r="B12" s="29">
         <v>9</v>
       </c>
-      <c r="C12" s="51" t="s">
-        <v>60</v>
+      <c r="C12" s="39" t="s">
+        <v>48</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>26</v>
@@ -1868,8 +1900,8 @@
       <c r="B13" s="29">
         <v>10</v>
       </c>
-      <c r="C13" s="51" t="s">
-        <v>61</v>
+      <c r="C13" s="39" t="s">
+        <v>49</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>26</v>
@@ -1881,11 +1913,11 @@
       <c r="B14" s="29">
         <v>11</v>
       </c>
-      <c r="C14" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>58</v>
+      <c r="C14" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>46</v>
       </c>
       <c r="E14" s="32"/>
     </row>
@@ -1894,11 +1926,11 @@
       <c r="B15" s="29">
         <v>12</v>
       </c>
-      <c r="C15" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>96</v>
+      <c r="C15" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>61</v>
       </c>
       <c r="E15" s="32"/>
     </row>
@@ -1907,63 +1939,73 @@
       <c r="B16" s="29">
         <v>13</v>
       </c>
-      <c r="C16" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>98</v>
+      <c r="C16" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>63</v>
       </c>
       <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" ht="38.25">
       <c r="A17" s="13"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="51" t="s">
+      <c r="B17" s="29">
+        <v>14</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="39" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" ht="38.25">
       <c r="A18" s="13"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>100</v>
+      <c r="B18" s="29">
+        <v>15</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>65</v>
       </c>
       <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" ht="51">
       <c r="A19" s="13"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>102</v>
+      <c r="B19" s="29">
+        <v>16</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>67</v>
       </c>
       <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" ht="38.25">
       <c r="A20" s="13"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>104</v>
+      <c r="B20" s="29">
+        <v>17</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" ht="51">
       <c r="A21" s="13"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="51" t="s">
-        <v>94</v>
+      <c r="B21" s="29">
+        <v>18</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="D21" s="32" t="s">
         <v>28</v>
@@ -1973,60 +2015,62 @@
     <row r="22" spans="1:5" ht="38.25">
       <c r="A22" s="13"/>
       <c r="B22" s="29">
-        <v>15</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>106</v>
+        <v>19</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>71</v>
       </c>
       <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:5" ht="51">
       <c r="A23" s="13"/>
       <c r="B23" s="29">
-        <v>15</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>108</v>
+        <v>20</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>73</v>
       </c>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" ht="51">
       <c r="A24" s="13"/>
       <c r="B24" s="29">
-        <v>16</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>53</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" ht="51">
       <c r="A25" s="13"/>
       <c r="B25" s="29">
-        <v>17</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="39" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" ht="51">
       <c r="A26" s="13"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="51" t="s">
-        <v>68</v>
+      <c r="B26" s="29">
+        <v>23</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>56</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>27</v>
@@ -2036,10 +2080,10 @@
     <row r="27" spans="1:5" ht="38.25">
       <c r="A27" s="13"/>
       <c r="B27" s="29">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>29</v>
@@ -2049,10 +2093,10 @@
     <row r="28" spans="1:5" ht="51">
       <c r="A28" s="13"/>
       <c r="B28" s="29">
-        <v>19</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>67</v>
+        <v>25</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>55</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>29</v>
@@ -2064,12 +2108,12 @@
     <row r="29" spans="1:5" ht="51">
       <c r="A29" s="13"/>
       <c r="B29" s="29">
-        <v>19</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="39" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="32" t="s">
@@ -2079,12 +2123,12 @@
     <row r="30" spans="1:5" ht="38.25">
       <c r="A30" s="13"/>
       <c r="B30" s="29">
-        <v>20</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="39" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="32"/>
@@ -2092,10 +2136,10 @@
     <row r="31" spans="1:5" ht="38.25">
       <c r="A31" s="13"/>
       <c r="B31" s="29">
-        <v>20</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>112</v>
+        <v>28</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>77</v>
       </c>
       <c r="D31" s="32" t="s">
         <v>31</v>
@@ -2104,468 +2148,460 @@
     </row>
     <row r="32" spans="1:5" ht="51">
       <c r="A32" s="13"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="51" t="s">
-        <v>114</v>
+      <c r="B32" s="29">
+        <v>29</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>79</v>
       </c>
       <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:5" ht="51">
       <c r="A33" s="53"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="56"/>
+      <c r="B33" s="29">
+        <v>30</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="55"/>
     </row>
     <row r="34" spans="1:5" ht="51">
       <c r="A34" s="13"/>
       <c r="B34" s="29">
-        <v>23</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="51" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>79</v>
       </c>
       <c r="E34" s="32"/>
     </row>
-    <row r="35" spans="1:5" ht="51">
+    <row r="35" spans="1:5" ht="57" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="29">
-        <v>24</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>82</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="E35" s="32"/>
     </row>
-    <row r="36" spans="1:5" ht="63.75">
+    <row r="36" spans="1:5" ht="51">
       <c r="A36" s="13"/>
       <c r="B36" s="29">
-        <v>25</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>79</v>
       </c>
       <c r="E36" s="32"/>
     </row>
     <row r="37" spans="1:5" ht="51">
       <c r="A37" s="13"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="51">
+      <c r="B37" s="29">
+        <v>34</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="32"/>
+    </row>
+    <row r="38" spans="1:5" ht="76.5">
       <c r="A38" s="13"/>
       <c r="B38" s="29">
-        <v>27</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>74</v>
+        <v>35</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>86</v>
       </c>
       <c r="D38" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="51">
+      <c r="E38" s="32"/>
+    </row>
+    <row r="39" spans="1:5" ht="76.5">
       <c r="A39" s="13"/>
       <c r="B39" s="29">
-        <v>28</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>75</v>
+        <v>36</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="D39" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="51">
+      <c r="E39" s="32"/>
+    </row>
+    <row r="40" spans="1:5" ht="63.75">
       <c r="A40" s="13"/>
       <c r="B40" s="29">
-        <v>29</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="32"/>
     </row>
     <row r="41" spans="1:5" ht="51">
       <c r="A41" s="13"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="51">
+      <c r="B41" s="29">
+        <v>38</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="32"/>
+    </row>
+    <row r="42" spans="1:5" ht="38.25">
       <c r="A42" s="13"/>
       <c r="B42" s="29">
-        <v>31</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="51">
+        <v>39</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+    </row>
+    <row r="43" spans="1:5" ht="63.75">
       <c r="A43" s="13"/>
       <c r="B43" s="29">
+        <v>40</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>35</v>
-      </c>
+      <c r="E43" s="32"/>
     </row>
     <row r="44" spans="1:5" ht="51">
-      <c r="A44" s="13"/>
+      <c r="A44" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="B44" s="29">
-        <v>33</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="32"/>
     </row>
     <row r="45" spans="1:5" ht="51">
       <c r="A45" s="13"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="51">
-      <c r="A46" s="13"/>
-      <c r="B46" s="29">
-        <v>35</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="32" t="s">
+      <c r="B45" s="29">
         <v>38</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="51">
-      <c r="A47" s="13"/>
-      <c r="B47" s="29">
-        <v>36</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="51">
-      <c r="A48" s="13"/>
-      <c r="B48" s="29">
-        <v>37</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="51">
-      <c r="A49" s="13"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="51">
-      <c r="A50" s="13"/>
-      <c r="B50" s="29">
-        <v>39</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="51">
-      <c r="A51" s="13"/>
+      <c r="C45" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="32"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="38.25">
+      <c r="A50" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="89.25">
+      <c r="A51" s="38" t="s">
+        <v>121</v>
+      </c>
       <c r="B51" s="29">
-        <v>40</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="32"/>
+    </row>
+    <row r="52" spans="1:5" ht="25.5">
       <c r="A52" s="13"/>
       <c r="B52" s="29">
-        <v>41</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>88</v>
+        <v>2</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>95</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="51">
+        <v>26</v>
+      </c>
+      <c r="E52" s="32"/>
+    </row>
+    <row r="53" spans="1:5" ht="25.5">
       <c r="A53" s="13"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="32" t="s">
-        <v>89</v>
+      <c r="B53" s="29">
+        <v>3</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>96</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>43</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E53" s="32"/>
     </row>
     <row r="54" spans="1:5" ht="25.5">
       <c r="A54" s="13"/>
       <c r="B54" s="29">
-        <v>43</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="32" t="s">
-        <v>44</v>
-      </c>
+      <c r="E54" s="32"/>
     </row>
     <row r="55" spans="1:5" ht="25.5">
       <c r="A55" s="13"/>
       <c r="B55" s="29">
-        <v>44</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="32" t="s">
-        <v>44</v>
-      </c>
+      <c r="E55" s="32"/>
     </row>
     <row r="56" spans="1:5" ht="25.5">
       <c r="A56" s="13"/>
       <c r="B56" s="29">
-        <v>45</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="32" t="s">
-        <v>44</v>
-      </c>
+      <c r="E56" s="32"/>
     </row>
     <row r="57" spans="1:5" ht="25.5">
       <c r="A57" s="13"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="29" t="s">
+      <c r="B57" s="29">
+        <v>7</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-    </row>
-    <row r="3997" spans="1:1">
-      <c r="A3997" s="12" t="s">
+      <c r="E57" s="32"/>
+    </row>
+    <row r="58" spans="1:5" ht="63.75">
+      <c r="A58" s="13"/>
+      <c r="B58" s="29">
+        <v>35</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" s="32"/>
+    </row>
+    <row r="59" spans="1:5" ht="63.75">
+      <c r="A59" s="13"/>
+      <c r="B59" s="29">
+        <v>36</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="32"/>
+    </row>
+    <row r="60" spans="1:5" ht="63.75">
+      <c r="A60" s="13"/>
+      <c r="B60" s="29">
+        <v>35</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="32"/>
+    </row>
+    <row r="61" spans="1:5" ht="63.75">
+      <c r="A61" s="13"/>
+      <c r="B61" s="29">
+        <v>36</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="32"/>
+    </row>
+    <row r="62" spans="1:5" ht="51">
+      <c r="A62" s="13"/>
+      <c r="B62" s="29">
+        <v>35</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="32"/>
+    </row>
+    <row r="63" spans="1:5" ht="63.75">
+      <c r="A63" s="13"/>
+      <c r="B63" s="29">
+        <v>36</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E63" s="32"/>
+    </row>
+    <row r="64" spans="1:5" ht="63.75">
+      <c r="A64" s="13"/>
+      <c r="B64" s="29">
+        <v>35</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="E64" s="32"/>
+    </row>
+    <row r="65" spans="1:5" ht="63.75">
+      <c r="A65" s="13"/>
+      <c r="B65" s="29">
+        <v>36</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="E65" s="32"/>
+    </row>
+    <row r="66" spans="1:5" ht="63.75">
+      <c r="A66" s="13"/>
+      <c r="B66" s="29">
+        <v>35</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E66" s="32"/>
+    </row>
+    <row r="67" spans="1:5" ht="63.75">
+      <c r="A67" s="13"/>
+      <c r="B67" s="29">
+        <v>36</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E67" s="32"/>
+    </row>
+    <row r="68" spans="1:5" ht="63.75">
+      <c r="A68" s="13"/>
+      <c r="B68" s="29">
+        <v>35</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68" s="32"/>
+    </row>
+    <row r="3982" spans="1:1">
+      <c r="A3982" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2649,10 +2685,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>24</v>
@@ -2668,10 +2704,10 @@
         <v>23</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F6" s="32" t="s">
         <v>25</v>
@@ -3275,23 +3311,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Status xmlns="b62c5764-8b9b-429d-81c8-7dc754c5465d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BB721D65A47AAE4DB860A9E8CEE766B4" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="19acc60c8cbcb0fda6ee1e7ae8af0202">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b62c5764-8b9b-429d-81c8-7dc754c5465d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="372b452df986c82da160b570c5ecf664" ns2:_="">
     <xsd:import namespace="b62c5764-8b9b-429d-81c8-7dc754c5465d"/>
@@ -3358,30 +3377,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56744EE8-A62D-410E-B401-491B11CB1E35}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b62c5764-8b9b-429d-81c8-7dc754c5465d"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{256A17FD-57AB-4307-BD12-264A3A64E80F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Status xmlns="b62c5764-8b9b-429d-81c8-7dc754c5465d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA058698-D865-472D-B80A-F93BB701741D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3396,4 +3409,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{256A17FD-57AB-4307-BD12-264A3A64E80F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56744EE8-A62D-410E-B401-491B11CB1E35}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b62c5764-8b9b-429d-81c8-7dc754c5465d"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Test Conditions and Expected Results CodingtonPortal.xlsx
+++ b/Test Conditions and Expected Results CodingtonPortal.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="127">
   <si>
     <t>Definitions</t>
   </si>
@@ -511,6 +511,15 @@
   </si>
   <si>
     <t>Visitor select an event and submits the request</t>
+  </si>
+  <si>
+    <t>System informs that the event was registered successfully.</t>
+  </si>
+  <si>
+    <t>Visitor select an event (with 0 seats avalaibles)and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the user that the event is full.</t>
   </si>
 </sst>
 </file>
@@ -1740,8 +1749,8 @@
   <dimension ref="A1:E3982"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2300,7 +2309,7 @@
       </c>
       <c r="E43" s="32"/>
     </row>
-    <row r="44" spans="1:5" ht="51">
+    <row r="44" spans="1:5" ht="25.5">
       <c r="A44" s="15" t="s">
         <v>122</v>
       </c>
@@ -2311,20 +2320,20 @@
         <v>123</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="E44" s="32"/>
     </row>
-    <row r="45" spans="1:5" ht="51">
+    <row r="45" spans="1:5" ht="38.25">
       <c r="A45" s="13"/>
       <c r="B45" s="29">
         <v>38</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="E45" s="32"/>
     </row>

--- a/Test Conditions and Expected Results CodingtonPortal.xlsx
+++ b/Test Conditions and Expected Results CodingtonPortal.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Cover Sheet'!$A$1:$N$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Revision History'!$A$1:$E$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Test Conditions'!$A$1:$E$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Test Conditions'!$A$1:$E$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Test Scenarios'!$A$1:$G$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Test Conditions'!$3:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Test Scenarios'!$A:$B,'Test Scenarios'!$1:$3</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="159">
   <si>
     <t>Definitions</t>
   </si>
@@ -223,15 +223,9 @@
     <t>System informs the user that the username is invalid.  The user is required to re-enter the username.</t>
   </si>
   <si>
-    <t>System informs the user that the username provided is already in use.  The user is then required to re-enter the username</t>
-  </si>
-  <si>
     <t>The system masks the content of the password field as the user enters it.</t>
   </si>
   <si>
-    <t>Data Dictionary - D_002</t>
-  </si>
-  <si>
     <t xml:space="preserve">The system masks the content of the confirmation password fields as the user enters it. </t>
   </si>
   <si>
@@ -259,34 +253,7 @@
     <t>The Create Account screen provides the facility to enter First Name, Last Name, Dni,Username, Password, Confirm Password, Email, Phone Number, and Address.</t>
   </si>
   <si>
-    <t>Visitor can enter a valid FirstName</t>
-  </si>
-  <si>
-    <t>Visitor can enter a valid LastName</t>
-  </si>
-  <si>
-    <t>Visitor can enter a valid Dni</t>
-  </si>
-  <si>
-    <t>Visitor can enter a valid username</t>
-  </si>
-  <si>
-    <t>Visitor can enter a valid password</t>
-  </si>
-  <si>
-    <t>Visitor can enter a valid confirmpassword</t>
-  </si>
-  <si>
     <t>System validates data and insert visitor to databases</t>
-  </si>
-  <si>
-    <t>Visitor can enter a valid email address.</t>
-  </si>
-  <si>
-    <t>Visitor can enter a valid phone number.</t>
-  </si>
-  <si>
-    <t>Visitor can enter a valid email</t>
   </si>
   <si>
     <t>Visitor clicks on Submit from the Create Visitor Account screen.</t>
@@ -296,136 +263,30 @@
 First Name, Last Name, Dni,Username, Password, Confirm Password, Email, Phone Number, and Address.</t>
   </si>
   <si>
-    <t>Visitor leaves the username field empty, and submits the request.</t>
-  </si>
-  <si>
-    <t>Visitor attempts to create a new account using an existing username, but with a name and address which already has an account, and submits the request.</t>
-  </si>
-  <si>
-    <t>System informs the user that the username is not available and that the Visitor already has an account.</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid username (username is less than 6 characters long), and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid username (username is greater than 12 characters long), and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor inputs a password into the password field</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid telephone number (telephone number does not start with zero)and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor inputs an existing firstname, the rest of the required fields valid, and submits the request.</t>
-  </si>
-  <si>
-    <t>Visitor leaves the firstname field empty, and submits the request.</t>
-  </si>
-  <si>
     <t>System informs the user that the firstname is invalid.  The user is required to re-enter the firstname.</t>
   </si>
   <si>
-    <t>Visitor leaves the lastname field empty, and submits the request.</t>
-  </si>
-  <si>
     <t>System informs the user that the lastname is invalid.  The user is required to re-enter the lastname.</t>
   </si>
   <si>
-    <t>Visitor leaves the password field empty, and submits the request.</t>
-  </si>
-  <si>
     <t>System informs the user that the password is invalid.  The user is required to re-enter the password.</t>
   </si>
   <si>
-    <t>Visitor leaves the confirm password field empty, and submits the request.</t>
-  </si>
-  <si>
     <t>System informs the user that the confirm password is invalid.  The user is required to re-enter the confirm password.</t>
   </si>
   <si>
-    <t>Visitor leaves the email field empty, and submits the request.</t>
-  </si>
-  <si>
     <t>System informs the user that the email is invalid.  The user is required to re-enter the email.</t>
   </si>
   <si>
-    <t>Visitor attempts to create a new account using a existing username.</t>
-  </si>
-  <si>
     <t xml:space="preserve">System informs the user that the Visitor can only have one account mapped to a username.  </t>
   </si>
   <si>
-    <t>Visitor attempts to create a new account using a non-existing username, but with a email which already has an account, and submits the request.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System informs the user that the Visitor can only have one account mapped to a email.  </t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid username (username less than  6 characters long), and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid username (username is greater than 15 characters long), and submits the request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visitor inputs a confirm password into the confirmation password </t>
-  </si>
-  <si>
-    <t>Visitor inputs a confirm password into the confirmation password field and is equal than password field</t>
-  </si>
-  <si>
-    <t>Visitor inputs an email with unpermitted character</t>
-  </si>
-  <si>
-    <t>System informs the user that the "Email" is not correct.  The user is then required to re-enter the email.</t>
-  </si>
-  <si>
-    <t>Visitor inputs an email without character "@"</t>
-  </si>
-  <si>
-    <t>Visitor inputs an email without a local and domain section in the form: “local”@domain</t>
-  </si>
-  <si>
-    <t>Visitor inputs an email with a local section  end with a ‘.’</t>
-  </si>
-  <si>
-    <t>Visitor inputs the local section without a character</t>
-  </si>
-  <si>
-    <t>Visitor inputs the domain section without one character</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid phone number (contains  non-numeric characters), and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid telephone number (telephone number is less than 10 numeric characters) and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid telephone number (telephone number is greater than 20 numeric characters) and submits the request</t>
-  </si>
-  <si>
-    <t>Visitor inputs all valid fields except for an invalid address (addres length is grater than 30 characters)</t>
-  </si>
-  <si>
     <t>System informs the user that the address is invalid.  The user is then required to  re-enter the address.</t>
   </si>
   <si>
-    <t>Visitor inputs all valid fields except for an invalid DNI (format is not XX.XXX.XXX-L)</t>
-  </si>
-  <si>
     <t>Visitor account</t>
   </si>
   <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>The Event screen provides the facility to enter Event Name, Description, Place, Duration, Event type and Seats Avalaible.</t>
-  </si>
-  <si>
-    <t>The Event Regist screen has the following fields to allow the Visitor to enter the required information for their account:
- Event Name, Description, Place, Duration, Event type and Seats Avalaible.</t>
-  </si>
-  <si>
     <t>Admin can enter a valid Event Name</t>
   </si>
   <si>
@@ -504,9 +365,6 @@
     <t>System informs the admin that the Seats Avalaible is invalid.  The user is then required to  re-enter the Seats Avalaible.</t>
   </si>
   <si>
-    <t>Create or modify Event</t>
-  </si>
-  <si>
     <t>Visitor want to regist in a Event</t>
   </si>
   <si>
@@ -516,17 +374,1082 @@
     <t>System informs that the event was registered successfully.</t>
   </si>
   <si>
-    <t>Visitor select an event (with 0 seats avalaibles)and submits the request</t>
-  </si>
-  <si>
     <t>System informs the user that the event is full.</t>
+  </si>
+  <si>
+    <t>Alternative flow 3 - Required field not populated</t>
+  </si>
+  <si>
+    <t>Follow main flow</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor can enter a valid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>FirstName</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor can enter a valid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>LastName</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor can enter a valid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dni</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor can enter a valid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>username</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor can enter a valid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>password</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor can enter a valid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>confirmpassword</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Visitor can enter a valid</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> phone number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor can enter a valid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>email</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor leaves the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">firstname </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>field empty, and submits the request.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Visitor leaves the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lastname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> field empty, and submits the request.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor leaves the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> field empty, and submits the request.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor leaves the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> field empty, and submits the request.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor leaves the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> field empty, and submits the request.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor attempts to create a new account using a existing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Visitor inputs all valid fields except for an invalid</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> username </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(username less than  6 characters long), and submits the request</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs all valid fields except for an invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (username is greater than 12 characters long), and submits the request</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>into the password field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor leaves the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>confirm password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> field empty, and submits the request.</t>
+    </r>
+  </si>
+  <si>
+    <t>System informs the user that the first name is invalid.  The user is required to re-enter the first name.</t>
+  </si>
+  <si>
+    <t>System informs the user that the last name is invalid.  The user is required to re-enter the last name.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor can enter a valid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Create Visitor Account - main flow</t>
+  </si>
+  <si>
+    <t>Alternative flow 1 - Username already used</t>
+  </si>
+  <si>
+    <t>Alternative flow 4 - Field value fails validation rules</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>confirm password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> into the confirmation password </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Visitor inputs a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> confirm password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> into the confirmation password field and is equal than password field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Visitor inputs a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> confirm password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> into the confirmation password field and is different than password field</t>
+    </r>
+  </si>
+  <si>
+    <t>Alternative flow 2 - Password / Confirm Password not the same</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">email </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>with unpermitted character</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> without character "@"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">email </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>without a local and domain section in the form: “local”@domain</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with a local section  end with a ‘.’</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> domain section without one character</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> local section without a character</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs all valid fields except for an invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>telephone number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (telephone number is less than 10 numeric characters) and submits the request</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs all valid fields except for an invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>telephone number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (telephone number is greater than 20 numeric characters) and submits the request</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Visitor inputs all valid fields except for an invalid</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> telephone number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (contains  non-numeric characters), and submits the request</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs all valid fields except for an invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (addres length is grater than 30 characters)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs all valid fields except for an invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DNI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(format is not XX.XXX.XXX-L)</t>
+    </r>
+  </si>
+  <si>
+    <t>System informs the user that the DNI is invalid.  The user is then required to  re-enter the DNI.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs all valid fields except for an invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">first name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(first name is less than 1 characters long), and submits the request</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Visitor inputs all valid fields except for an invalid</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> first name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(first name is greater than 30 characters long), and submits the request</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs all valid fields except for an invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">last name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(first name is less than 1 characters long), and submits the request</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs all valid fields except for an invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>last</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(last name is greater than 30 characters long), and submits the request</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs all valid fields except for an invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">email </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(email is less than 3 characters long), and submits the request</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs all valid fields except for an invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">email </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(email is greater than 200 characters long), and submits the request</t>
+    </r>
+  </si>
+  <si>
+    <t>System informs the user that the email is not correct.  The user is then required to re-enter the email.</t>
+  </si>
+  <si>
+    <t>Visitor select an event where the 
+and submits the request</t>
+  </si>
+  <si>
+    <t>The Login screen provides the facility to enter Username and Password</t>
+  </si>
+  <si>
+    <t>The Login screen has the following fields to allow the Visitor to enter to New Codingtno Portal:
+Username and Password.</t>
+  </si>
+  <si>
+    <t>Visitor login</t>
+  </si>
+  <si>
+    <t>The system accepts the data without error and log the Visitor.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor can enter a valid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Username </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Password</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor leaves the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> field empty, and submits the request.</t>
+    </r>
+  </si>
+  <si>
+    <t>System informs the user that the username or password is invalid.  The user is required to re-enter the username or password</t>
+  </si>
+  <si>
+    <t>Alternative flow 1- Username or Password field is blank</t>
+  </si>
+  <si>
+    <t>System informs the user that the username or password was not find as combination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternative flow 2- Username / Password combination not found </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor enter an invalid combinaion </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Username/Password,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and submits the request.</t>
+    </r>
+  </si>
+  <si>
+    <t>The update account screen provides the facility to change First Name, Last Name, Dni, Password, Confirm Password, Email, Phone Number, and Address.</t>
+  </si>
+  <si>
+    <t>The update account screen has the following fields to allow the Visitor to enter the required information for their account:
+First Name, Last Name, Dni, Password, Confirm Password, Email, Phone Number, and Address.</t>
+  </si>
+  <si>
+    <t>Visitor update his Account</t>
+  </si>
+  <si>
+    <t>Visitor update account</t>
+  </si>
+  <si>
+    <t>Visitor clicks on Submit from the Update Visitor Account screen.</t>
+  </si>
+  <si>
+    <t>System validates data and update visitor to databases</t>
+  </si>
+  <si>
+    <t>Update Visitor Account - main flow</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs all valid fields except for an invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (password is less than 6 characters long), and submits the request</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs all valid fields except for an invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (password is greater than 15 characters long), and submits the request</t>
+    </r>
+  </si>
+  <si>
+    <t>Alternative flow 1- Required field not populated</t>
+  </si>
+  <si>
+    <t>Alternative flow 2 - Field value fails validation rules</t>
+  </si>
+  <si>
+    <t>Visitor event unregister</t>
+  </si>
+  <si>
+    <t>Visitor event register</t>
+  </si>
+  <si>
+    <t>Visitor want to unregist in a Event</t>
+  </si>
+  <si>
+    <t>The event screen provides the event which the Visitor could be register</t>
+  </si>
+  <si>
+    <t>The event screen provides the events' information.</t>
+  </si>
+  <si>
+    <t>The event screen provides the event which the Visitor could be unregister</t>
+  </si>
+  <si>
+    <t>View Events</t>
+  </si>
+  <si>
+    <t>Visitor want to view events</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -665,6 +1588,19 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -925,7 +1861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1017,6 +1953,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1053,17 +1995,21 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1499,7 +2445,7 @@
     </row>
     <row r="9" spans="1:16" ht="18.75">
       <c r="B9" s="37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="3" customHeight="1">
@@ -1513,136 +2459,136 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="45"/>
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="48"/>
       <c r="N16" s="36"/>
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="48"/>
       <c r="N17" s="36"/>
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="48"/>
       <c r="N18" s="36"/>
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="36"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="48"/>
       <c r="N20" s="36"/>
       <c r="O20" s="36"/>
       <c r="P20" s="36"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="48"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1722,12 +2668,12 @@
       <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1746,11 +2692,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3982"/>
+  <dimension ref="A1:E4049"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <pane ySplit="3" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1765,7 +2711,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="27" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27" customHeight="1">
@@ -1787,18 +2733,18 @@
     </row>
     <row r="4" spans="1:5" ht="102">
       <c r="A4" s="38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="29">
         <v>1</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="32"/>
+        <v>40</v>
+      </c>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" ht="25.5">
       <c r="A5" s="13"/>
@@ -1806,7 +2752,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>26</v>
@@ -1819,7 +2765,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>26</v>
@@ -1832,7 +2778,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>26</v>
@@ -1845,7 +2791,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>26</v>
@@ -1858,7 +2804,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>26</v>
@@ -1871,7 +2817,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>26</v>
@@ -1884,7 +2830,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>26</v>
@@ -1897,7 +2843,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>26</v>
@@ -1910,25 +2856,27 @@
         <v>10</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:5" ht="25.5">
+    <row r="14" spans="1:5" ht="38.25">
       <c r="A14" s="13"/>
       <c r="B14" s="29">
         <v>11</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="32"/>
+        <v>38</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="38.25">
       <c r="A15" s="13"/>
@@ -1936,12 +2884,14 @@
         <v>12</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="32"/>
+        <v>41</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="38.25">
       <c r="A16" s="13"/>
@@ -1949,12 +2899,14 @@
         <v>13</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="32"/>
+        <v>42</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="38.25">
       <c r="A17" s="13"/>
@@ -1962,12 +2914,14 @@
         <v>14</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="32"/>
+      <c r="E17" s="39" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="38.25">
       <c r="A18" s="13"/>
@@ -1975,12 +2929,14 @@
         <v>15</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="32"/>
+        <v>43</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="51">
       <c r="A19" s="13"/>
@@ -1988,12 +2944,14 @@
         <v>16</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="32"/>
+        <v>44</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="38.25">
       <c r="A20" s="13"/>
@@ -2001,146 +2959,164 @@
         <v>17</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="32"/>
-    </row>
-    <row r="21" spans="1:5" ht="51">
+        <v>45</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="38.25">
       <c r="A21" s="13"/>
       <c r="B21" s="29">
         <v>18</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="32"/>
-    </row>
-    <row r="22" spans="1:5" ht="38.25">
+        <v>94</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="63.75">
       <c r="A22" s="13"/>
       <c r="B22" s="29">
         <v>19</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="32"/>
-    </row>
-    <row r="23" spans="1:5" ht="51">
+        <v>27</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="63.75">
       <c r="A23" s="13"/>
       <c r="B23" s="29">
         <v>20</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="32"/>
-    </row>
-    <row r="24" spans="1:5" ht="51">
+        <v>96</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="38.25">
       <c r="A24" s="13"/>
       <c r="B24" s="29">
         <v>21</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="32"/>
-    </row>
-    <row r="25" spans="1:5" ht="51">
+        <v>28</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="63.75">
       <c r="A25" s="13"/>
       <c r="B25" s="29">
         <v>22</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="32"/>
-    </row>
-    <row r="26" spans="1:5" ht="51">
+        <v>43</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="63.75">
       <c r="A26" s="13"/>
       <c r="B26" s="29">
         <v>23</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="32"/>
-    </row>
-    <row r="27" spans="1:5" ht="38.25">
+        <v>148</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="63.75">
       <c r="A27" s="13"/>
       <c r="B27" s="29">
         <v>24</v>
       </c>
-      <c r="C27" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="32"/>
-    </row>
-    <row r="28" spans="1:5" ht="51">
+      <c r="C27" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="63.75">
       <c r="A28" s="13"/>
       <c r="B28" s="29">
         <v>25</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="51">
+        <v>122</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="63.75">
       <c r="A29" s="13"/>
       <c r="B29" s="29">
         <v>26</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="38.25">
+        <v>100</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="63.75">
       <c r="A30" s="13"/>
       <c r="B30" s="29">
         <v>27</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="32"/>
+        <v>100</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="38.25">
       <c r="A31" s="13"/>
@@ -2148,12 +3124,14 @@
         <v>28</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="32"/>
+        <v>105</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="51">
       <c r="A32" s="13"/>
@@ -2161,25 +3139,29 @@
         <v>29</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="32"/>
-    </row>
-    <row r="33" spans="1:5" ht="51">
-      <c r="A33" s="53"/>
+        <v>29</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="70.5" customHeight="1">
+      <c r="A33" s="13"/>
       <c r="B33" s="29">
         <v>30</v>
       </c>
-      <c r="C33" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="55"/>
+      <c r="C33" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="51">
       <c r="A34" s="13"/>
@@ -2187,90 +3169,104 @@
         <v>31</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="32"/>
-    </row>
-    <row r="35" spans="1:5" ht="57" customHeight="1">
+        <v>125</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="63.75">
       <c r="A35" s="13"/>
       <c r="B35" s="29">
         <v>32</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="32"/>
+        <v>126</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="51">
       <c r="A36" s="13"/>
       <c r="B36" s="29">
         <v>33</v>
       </c>
-      <c r="C36" s="56" t="s">
-        <v>83</v>
+      <c r="C36" s="39" t="s">
+        <v>109</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="32"/>
+        <v>127</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="51">
-      <c r="A37" s="13"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="29">
         <v>34</v>
       </c>
-      <c r="C37" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="32"/>
-    </row>
-    <row r="38" spans="1:5" ht="76.5">
+      <c r="C37" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="51">
       <c r="A38" s="13"/>
       <c r="B38" s="29">
         <v>35</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="32"/>
-    </row>
-    <row r="39" spans="1:5" ht="76.5">
+        <v>111</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="51">
       <c r="A39" s="13"/>
       <c r="B39" s="29">
         <v>36</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="32"/>
-    </row>
-    <row r="40" spans="1:5" ht="63.75">
+        <v>112</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="51">
       <c r="A40" s="13"/>
       <c r="B40" s="29">
         <v>37</v>
       </c>
-      <c r="C40" s="39" t="s">
-        <v>85</v>
+      <c r="C40" s="55" t="s">
+        <v>114</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="32"/>
+        <v>127</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="51">
       <c r="A41" s="13"/>
@@ -2278,339 +3274,1186 @@
         <v>38</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="32"/>
-    </row>
-    <row r="42" spans="1:5" ht="38.25">
+        <v>127</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="76.5">
       <c r="A42" s="13"/>
       <c r="B42" s="29">
         <v>39</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-    </row>
-    <row r="43" spans="1:5" ht="63.75">
+        <v>115</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="76.5">
       <c r="A43" s="13"/>
       <c r="B43" s="29">
         <v>40</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="32"/>
-    </row>
-    <row r="44" spans="1:5" ht="25.5">
-      <c r="A44" s="15" t="s">
-        <v>122</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="63.75">
+      <c r="A44" s="13"/>
       <c r="B44" s="29">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="E44" s="32"/>
-    </row>
-    <row r="45" spans="1:5" ht="38.25">
+        <v>30</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="51">
       <c r="A45" s="13"/>
       <c r="B45" s="29">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="32"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
+        <v>47</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="38.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="29">
+        <v>43</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="38.25">
-      <c r="A50" s="26" t="s">
+      <c r="A48" s="56"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="38.25">
+      <c r="A51" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B51" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C51" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D51" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E51" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="89.25">
-      <c r="A51" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" s="29">
+    <row r="52" spans="1:5" ht="51">
+      <c r="A52" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="29">
         <v>1</v>
       </c>
-      <c r="C51" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="E51" s="32"/>
-    </row>
-    <row r="52" spans="1:5" ht="25.5">
-      <c r="A52" s="13"/>
-      <c r="B52" s="29">
-        <v>2</v>
-      </c>
       <c r="C52" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="32"/>
+        <v>129</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="39"/>
     </row>
     <row r="53" spans="1:5" ht="25.5">
       <c r="A53" s="13"/>
       <c r="B53" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" s="32"/>
-    </row>
-    <row r="54" spans="1:5" ht="25.5">
+        <v>133</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="51">
       <c r="A54" s="13"/>
       <c r="B54" s="29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="32"/>
-    </row>
-    <row r="55" spans="1:5" ht="25.5">
+        <v>134</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="51">
       <c r="A55" s="13"/>
       <c r="B55" s="29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="32"/>
-    </row>
-    <row r="56" spans="1:5" ht="25.5">
-      <c r="A56" s="13"/>
-      <c r="B56" s="29">
+        <v>139</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="56"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="56"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="56"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="38.25">
+      <c r="A61" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="32"/>
-    </row>
-    <row r="57" spans="1:5" ht="25.5">
-      <c r="A57" s="13"/>
-      <c r="B57" s="29">
-        <v>7</v>
-      </c>
-      <c r="C57" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D57" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="32"/>
-    </row>
-    <row r="58" spans="1:5" ht="63.75">
-      <c r="A58" s="13"/>
-      <c r="B58" s="29">
-        <v>35</v>
-      </c>
-      <c r="C58" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="E58" s="32"/>
-    </row>
-    <row r="59" spans="1:5" ht="63.75">
-      <c r="A59" s="13"/>
-      <c r="B59" s="29">
-        <v>36</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" s="32"/>
-    </row>
-    <row r="60" spans="1:5" ht="63.75">
-      <c r="A60" s="13"/>
-      <c r="B60" s="29">
-        <v>35</v>
-      </c>
-      <c r="C60" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" s="32"/>
-    </row>
-    <row r="61" spans="1:5" ht="63.75">
-      <c r="A61" s="13"/>
-      <c r="B61" s="29">
-        <v>36</v>
-      </c>
-      <c r="C61" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="32"/>
-    </row>
-    <row r="62" spans="1:5" ht="51">
-      <c r="A62" s="13"/>
+      <c r="B61" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="102">
+      <c r="A62" s="38" t="s">
+        <v>142</v>
+      </c>
       <c r="B62" s="29">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="D62" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="E62" s="32"/>
-    </row>
-    <row r="63" spans="1:5" ht="63.75">
+        <v>141</v>
+      </c>
+      <c r="E62" s="39"/>
+    </row>
+    <row r="63" spans="1:5" ht="25.5">
       <c r="A63" s="13"/>
       <c r="B63" s="29">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="D63" s="39" t="s">
-        <v>110</v>
+        <v>85</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="E63" s="32"/>
     </row>
-    <row r="64" spans="1:5" ht="63.75">
+    <row r="64" spans="1:5" ht="25.5">
       <c r="A64" s="13"/>
       <c r="B64" s="29">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D64" s="39" t="s">
-        <v>112</v>
+        <v>81</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="E64" s="32"/>
     </row>
-    <row r="65" spans="1:5" ht="63.75">
+    <row r="65" spans="1:5" ht="25.5">
       <c r="A65" s="13"/>
       <c r="B65" s="29">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D65" s="39" t="s">
-        <v>114</v>
+        <v>82</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="E65" s="32"/>
     </row>
-    <row r="66" spans="1:5" ht="63.75">
+    <row r="66" spans="1:5" ht="25.5">
       <c r="A66" s="13"/>
       <c r="B66" s="29">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D66" s="39" t="s">
-        <v>116</v>
+        <v>88</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="E66" s="32"/>
     </row>
-    <row r="67" spans="1:5" ht="63.75">
+    <row r="67" spans="1:5" ht="25.5">
       <c r="A67" s="13"/>
       <c r="B67" s="29">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="D67" s="39" t="s">
-        <v>118</v>
+        <v>87</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="E67" s="32"/>
     </row>
-    <row r="68" spans="1:5" ht="63.75">
+    <row r="68" spans="1:5" ht="25.5">
       <c r="A68" s="13"/>
       <c r="B68" s="29">
+        <v>7</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="32"/>
+    </row>
+    <row r="69" spans="1:5" ht="25.5">
+      <c r="A69" s="13"/>
+      <c r="B69" s="29">
+        <v>8</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="32"/>
+    </row>
+    <row r="70" spans="1:5" ht="25.5">
+      <c r="A70" s="13"/>
+      <c r="B70" s="29">
+        <v>9</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="32"/>
+    </row>
+    <row r="71" spans="1:5" ht="38.25">
+      <c r="A71" s="13"/>
+      <c r="B71" s="29">
+        <v>10</v>
+      </c>
+      <c r="C71" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="38.25">
+      <c r="A72" s="13"/>
+      <c r="B72" s="29">
+        <v>11</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" s="60" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="38.25">
+      <c r="A73" s="13"/>
+      <c r="B73" s="29">
+        <v>12</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E73" s="60" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="38.25">
+      <c r="A74" s="13"/>
+      <c r="B74" s="29">
+        <v>13</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" s="60" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="51">
+      <c r="A75" s="13"/>
+      <c r="B75" s="29">
+        <v>14</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="60" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="38.25">
+      <c r="A76" s="13"/>
+      <c r="B76" s="29">
+        <v>15</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="60" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="38.25">
+      <c r="A77" s="13"/>
+      <c r="B77" s="29">
+        <v>16</v>
+      </c>
+      <c r="C77" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="60"/>
+    </row>
+    <row r="78" spans="1:5" ht="63.75">
+      <c r="A78" s="13"/>
+      <c r="B78" s="29">
+        <v>17</v>
+      </c>
+      <c r="C78" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D78" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E78" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="63.75">
+      <c r="A79" s="13"/>
+      <c r="B79" s="29">
+        <v>18</v>
+      </c>
+      <c r="C79" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D79" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E79" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="63.75">
+      <c r="A80" s="13"/>
+      <c r="B80" s="29">
+        <v>19</v>
+      </c>
+      <c r="C80" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E80" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="63.75">
+      <c r="A81" s="13"/>
+      <c r="B81" s="29">
+        <v>20</v>
+      </c>
+      <c r="C81" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D81" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E81" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="63.75">
+      <c r="A82" s="13"/>
+      <c r="B82" s="29">
+        <v>21</v>
+      </c>
+      <c r="C82" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D82" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E82" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="63.75">
+      <c r="A83" s="13"/>
+      <c r="B83" s="29">
+        <v>22</v>
+      </c>
+      <c r="C83" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D83" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="38.25">
+      <c r="A84" s="13"/>
+      <c r="B84" s="29">
+        <v>23</v>
+      </c>
+      <c r="C84" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D84" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="51">
+      <c r="A85" s="13"/>
+      <c r="B85" s="29">
+        <v>24</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="51">
+      <c r="A86" s="13"/>
+      <c r="B86" s="29">
+        <v>25</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="51">
+      <c r="A87" s="13"/>
+      <c r="B87" s="29">
+        <v>26</v>
+      </c>
+      <c r="C87" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D87" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="63.75">
+      <c r="A88" s="13"/>
+      <c r="B88" s="29">
+        <v>27</v>
+      </c>
+      <c r="C88" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D88" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E88" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="51">
+      <c r="A89" s="13"/>
+      <c r="B89" s="29">
+        <v>28</v>
+      </c>
+      <c r="C89" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D89" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E89" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="51">
+      <c r="A90" s="41"/>
+      <c r="B90" s="29">
+        <v>29</v>
+      </c>
+      <c r="C90" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D90" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="51">
+      <c r="A91" s="13"/>
+      <c r="B91" s="29">
+        <v>30</v>
+      </c>
+      <c r="C91" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E91" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="51">
+      <c r="A92" s="13"/>
+      <c r="B92" s="29">
+        <v>31</v>
+      </c>
+      <c r="C92" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E92" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="51">
+      <c r="A93" s="13"/>
+      <c r="B93" s="29">
+        <v>32</v>
+      </c>
+      <c r="C93" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D93" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E93" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="51">
+      <c r="A94" s="13"/>
+      <c r="B94" s="29">
+        <v>33</v>
+      </c>
+      <c r="C94" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D94" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E94" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="76.5">
+      <c r="A95" s="13"/>
+      <c r="B95" s="29">
+        <v>34</v>
+      </c>
+      <c r="C95" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D95" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="76.5">
+      <c r="A96" s="13"/>
+      <c r="B96" s="29">
         <v>35</v>
       </c>
-      <c r="C68" s="39" t="s">
+      <c r="C96" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E96" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="63.75">
+      <c r="A97" s="13"/>
+      <c r="B97" s="29">
+        <v>36</v>
+      </c>
+      <c r="C97" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D97" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E97" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="51">
+      <c r="A98" s="13"/>
+      <c r="B98" s="29">
+        <v>37</v>
+      </c>
+      <c r="C98" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E98" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="38.25">
+      <c r="A99" s="13"/>
+      <c r="B99" s="29">
+        <v>38</v>
+      </c>
+      <c r="C99" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D68" s="39" t="s">
+      <c r="D99" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="E68" s="32"/>
-    </row>
-    <row r="3982" spans="1:1">
-      <c r="A3982" s="12" t="s">
+      <c r="E99" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="38.25">
+      <c r="A103" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="38.25">
+      <c r="A104" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B104" s="29">
+        <v>1</v>
+      </c>
+      <c r="C104" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D104" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E104" s="39"/>
+    </row>
+    <row r="105" spans="1:5" ht="25.5">
+      <c r="B105" s="29">
+        <v>2</v>
+      </c>
+      <c r="C105" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D105" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E105" s="32"/>
+    </row>
+    <row r="106" spans="1:5" ht="25.5">
+      <c r="A106" s="13"/>
+      <c r="B106" s="29">
+        <v>3</v>
+      </c>
+      <c r="C106" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D106" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E106" s="32"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="56"/>
+      <c r="B107" s="57"/>
+      <c r="C107" s="58"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="59"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="38.25">
+      <c r="A110" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="38.25">
+      <c r="A111" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B111" s="29">
+        <v>1</v>
+      </c>
+      <c r="C111" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D111" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E111" s="39"/>
+    </row>
+    <row r="112" spans="1:5" ht="25.5">
+      <c r="A112" s="15"/>
+      <c r="B112" s="29">
+        <v>2</v>
+      </c>
+      <c r="C112" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D112" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E112" s="32"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="B113" s="57"/>
+      <c r="C113" s="58"/>
+      <c r="D113" s="58"/>
+      <c r="E113" s="59"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="38.25">
+      <c r="A116" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="38.25">
+      <c r="A117" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117" s="29">
+        <v>1</v>
+      </c>
+      <c r="C117" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D117" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E117" s="39"/>
+    </row>
+    <row r="118" spans="1:5" ht="25.5">
+      <c r="A118" s="15"/>
+      <c r="B118" s="29">
+        <v>2</v>
+      </c>
+      <c r="C118" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D118" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E118" s="32"/>
+    </row>
+    <row r="119" spans="1:5" ht="25.5">
+      <c r="A119" s="13"/>
+      <c r="B119" s="29">
+        <v>2</v>
+      </c>
+      <c r="C119" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D119" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119" s="32"/>
+    </row>
+    <row r="120" spans="1:5" ht="25.5">
+      <c r="A120" s="13"/>
+      <c r="B120" s="29">
+        <v>3</v>
+      </c>
+      <c r="C120" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D120" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120" s="32"/>
+    </row>
+    <row r="121" spans="1:5" ht="25.5">
+      <c r="A121" s="13"/>
+      <c r="B121" s="29">
+        <v>4</v>
+      </c>
+      <c r="C121" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D121" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E121" s="32"/>
+    </row>
+    <row r="122" spans="1:5" ht="25.5">
+      <c r="A122" s="13"/>
+      <c r="B122" s="29">
+        <v>5</v>
+      </c>
+      <c r="C122" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E122" s="32"/>
+    </row>
+    <row r="123" spans="1:5" ht="25.5">
+      <c r="A123" s="13"/>
+      <c r="B123" s="29">
+        <v>6</v>
+      </c>
+      <c r="C123" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D123" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E123" s="32"/>
+    </row>
+    <row r="124" spans="1:5" ht="25.5">
+      <c r="A124" s="13"/>
+      <c r="B124" s="29">
+        <v>7</v>
+      </c>
+      <c r="C124" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D124" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E124" s="32"/>
+    </row>
+    <row r="125" spans="1:5" ht="63.75">
+      <c r="A125" s="13"/>
+      <c r="B125" s="29">
+        <v>35</v>
+      </c>
+      <c r="C125" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D125" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E125" s="32"/>
+    </row>
+    <row r="126" spans="1:5" ht="63.75">
+      <c r="A126" s="13"/>
+      <c r="B126" s="29">
+        <v>36</v>
+      </c>
+      <c r="C126" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D126" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E126" s="32"/>
+    </row>
+    <row r="127" spans="1:5" ht="63.75">
+      <c r="A127" s="13"/>
+      <c r="B127" s="29">
+        <v>35</v>
+      </c>
+      <c r="C127" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D127" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E127" s="32"/>
+    </row>
+    <row r="128" spans="1:5" ht="63.75">
+      <c r="A128" s="13"/>
+      <c r="B128" s="29">
+        <v>36</v>
+      </c>
+      <c r="C128" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D128" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E128" s="32"/>
+    </row>
+    <row r="129" spans="1:5" ht="51">
+      <c r="A129" s="13"/>
+      <c r="B129" s="29">
+        <v>35</v>
+      </c>
+      <c r="C129" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D129" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E129" s="32"/>
+    </row>
+    <row r="130" spans="1:5" ht="63.75">
+      <c r="A130" s="13"/>
+      <c r="B130" s="29">
+        <v>36</v>
+      </c>
+      <c r="C130" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="32"/>
+    </row>
+    <row r="131" spans="1:5" ht="63.75">
+      <c r="A131" s="13"/>
+      <c r="B131" s="29">
+        <v>35</v>
+      </c>
+      <c r="C131" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D131" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E131" s="32"/>
+    </row>
+    <row r="132" spans="1:5" ht="63.75">
+      <c r="A132" s="13"/>
+      <c r="B132" s="29">
+        <v>36</v>
+      </c>
+      <c r="C132" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D132" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E132" s="32"/>
+    </row>
+    <row r="133" spans="1:5" ht="63.75">
+      <c r="A133" s="13"/>
+      <c r="B133" s="29">
+        <v>35</v>
+      </c>
+      <c r="C133" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D133" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E133" s="32"/>
+    </row>
+    <row r="134" spans="1:5" ht="63.75">
+      <c r="A134" s="13"/>
+      <c r="B134" s="29">
+        <v>36</v>
+      </c>
+      <c r="C134" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D134" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E134" s="32"/>
+    </row>
+    <row r="135" spans="1:5" ht="63.75">
+      <c r="A135" s="13"/>
+      <c r="B135" s="29">
+        <v>35</v>
+      </c>
+      <c r="C135" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D135" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E135" s="32"/>
+    </row>
+    <row r="4049" spans="1:1">
+      <c r="A4049" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2694,10 +4537,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>24</v>
@@ -2713,10 +4556,10 @@
         <v>23</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" s="32" t="s">
         <v>25</v>
@@ -3320,6 +5163,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Status xmlns="b62c5764-8b9b-429d-81c8-7dc754c5465d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BB721D65A47AAE4DB860A9E8CEE766B4" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="19acc60c8cbcb0fda6ee1e7ae8af0202">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b62c5764-8b9b-429d-81c8-7dc754c5465d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="372b452df986c82da160b570c5ecf664" ns2:_="">
     <xsd:import namespace="b62c5764-8b9b-429d-81c8-7dc754c5465d"/>
@@ -3386,24 +5246,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56744EE8-A62D-410E-B401-491B11CB1E35}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b62c5764-8b9b-429d-81c8-7dc754c5465d"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Status xmlns="b62c5764-8b9b-429d-81c8-7dc754c5465d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{256A17FD-57AB-4307-BD12-264A3A64E80F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA058698-D865-472D-B80A-F93BB701741D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3418,27 +5284,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{256A17FD-57AB-4307-BD12-264A3A64E80F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56744EE8-A62D-410E-B401-491B11CB1E35}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b62c5764-8b9b-429d-81c8-7dc754c5465d"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Test Conditions and Expected Results CodingtonPortal.xlsx
+++ b/Test Conditions and Expected Results CodingtonPortal.xlsx
@@ -2695,8 +2695,8 @@
   <dimension ref="A1:E4049"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
+      <pane ySplit="3" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4234,7 +4234,7 @@
     <row r="119" spans="1:5" ht="25.5">
       <c r="A119" s="13"/>
       <c r="B119" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C119" s="39" t="s">
         <v>49</v>
@@ -4247,7 +4247,7 @@
     <row r="120" spans="1:5" ht="25.5">
       <c r="A120" s="13"/>
       <c r="B120" s="29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C120" s="39" t="s">
         <v>50</v>
@@ -4260,7 +4260,7 @@
     <row r="121" spans="1:5" ht="25.5">
       <c r="A121" s="13"/>
       <c r="B121" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C121" s="39" t="s">
         <v>51</v>
@@ -4273,7 +4273,7 @@
     <row r="122" spans="1:5" ht="25.5">
       <c r="A122" s="13"/>
       <c r="B122" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122" s="39" t="s">
         <v>52</v>
@@ -4286,7 +4286,7 @@
     <row r="123" spans="1:5" ht="25.5">
       <c r="A123" s="13"/>
       <c r="B123" s="29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C123" s="39" t="s">
         <v>53</v>
@@ -4299,7 +4299,7 @@
     <row r="124" spans="1:5" ht="25.5">
       <c r="A124" s="13"/>
       <c r="B124" s="29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" s="39" t="s">
         <v>54</v>
@@ -4312,7 +4312,7 @@
     <row r="125" spans="1:5" ht="63.75">
       <c r="A125" s="13"/>
       <c r="B125" s="29">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C125" s="39" t="s">
         <v>56</v>
@@ -4325,7 +4325,7 @@
     <row r="126" spans="1:5" ht="63.75">
       <c r="A126" s="13"/>
       <c r="B126" s="29">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C126" s="39" t="s">
         <v>57</v>
@@ -4338,7 +4338,7 @@
     <row r="127" spans="1:5" ht="63.75">
       <c r="A127" s="13"/>
       <c r="B127" s="29">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C127" s="39" t="s">
         <v>58</v>
@@ -4351,7 +4351,7 @@
     <row r="128" spans="1:5" ht="63.75">
       <c r="A128" s="13"/>
       <c r="B128" s="29">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C128" s="39" t="s">
         <v>60</v>
@@ -4364,7 +4364,7 @@
     <row r="129" spans="1:5" ht="51">
       <c r="A129" s="13"/>
       <c r="B129" s="29">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C129" s="39" t="s">
         <v>61</v>
@@ -4377,7 +4377,7 @@
     <row r="130" spans="1:5" ht="63.75">
       <c r="A130" s="13"/>
       <c r="B130" s="29">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C130" s="39" t="s">
         <v>63</v>
@@ -4390,7 +4390,7 @@
     <row r="131" spans="1:5" ht="63.75">
       <c r="A131" s="13"/>
       <c r="B131" s="29">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C131" s="39" t="s">
         <v>65</v>
@@ -4403,7 +4403,7 @@
     <row r="132" spans="1:5" ht="63.75">
       <c r="A132" s="13"/>
       <c r="B132" s="29">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C132" s="39" t="s">
         <v>67</v>
@@ -4416,7 +4416,7 @@
     <row r="133" spans="1:5" ht="63.75">
       <c r="A133" s="13"/>
       <c r="B133" s="29">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C133" s="39" t="s">
         <v>69</v>
@@ -4429,7 +4429,7 @@
     <row r="134" spans="1:5" ht="63.75">
       <c r="A134" s="13"/>
       <c r="B134" s="29">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C134" s="39" t="s">
         <v>71</v>
@@ -4442,7 +4442,7 @@
     <row r="135" spans="1:5" ht="63.75">
       <c r="A135" s="13"/>
       <c r="B135" s="29">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C135" s="39" t="s">
         <v>73</v>

--- a/Test Conditions and Expected Results CodingtonPortal.xlsx
+++ b/Test Conditions and Expected Results CodingtonPortal.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="233">
   <si>
     <t>Definitions</t>
   </si>
@@ -287,87 +287,6 @@
     <t>Visitor account</t>
   </si>
   <si>
-    <t>Admin can enter a valid Event Name</t>
-  </si>
-  <si>
-    <t>Admin can enter a valid Description</t>
-  </si>
-  <si>
-    <t>Admin can enter a valid Place</t>
-  </si>
-  <si>
-    <t>Admin can enter a valid Duration</t>
-  </si>
-  <si>
-    <t>Admin can enter a valid Event Type</t>
-  </si>
-  <si>
-    <t>Admin can enter a valid Seats Avalaible</t>
-  </si>
-  <si>
-    <t>System informs the admin that the Event Name is invalid.  The user is then required to  re-enter the Event Name.</t>
-  </si>
-  <si>
-    <t>Admin inputs all valid fields except for an invalid Event Name (Event Name is less than 1 characters) and submits the request</t>
-  </si>
-  <si>
-    <t>Admin inputs all valid fields except for an invalid Event Name (Event Name is greater than 45 characters) and submits the request</t>
-  </si>
-  <si>
-    <t>Admin inputs all valid fields except for an invalid Description (Description is less than 1 characters) and submits the request</t>
-  </si>
-  <si>
-    <t>System informs the admin that the Description is invalid.  The user is then required to  re-enter the Description.</t>
-  </si>
-  <si>
-    <t>Admin inputs all valid fields except for an invalid Description(Description is greater than 45 characters) and submits the request</t>
-  </si>
-  <si>
-    <t>Admin inputs all valid fields except for an invalid Place  (Place is less than 1 characters) and submits the request</t>
-  </si>
-  <si>
-    <t>System informs the admin that the Place is invalid.  The user is then required to  re-enter the Place .</t>
-  </si>
-  <si>
-    <t>Admin inputs all valid fields except for an invalid Place (Place is greater than 45 characters) and submits the request</t>
-  </si>
-  <si>
-    <t>System informs the admin that the Place  is invalid.  The user is then required to  re-enter the Place .</t>
-  </si>
-  <si>
-    <t>Admin inputs all valid fields except for an invalid Duration (Duration is less than 1 characters) and submits the request</t>
-  </si>
-  <si>
-    <t>System informs the admin that the Duration is invalid.  The user is then required to  re-enter the Duration .</t>
-  </si>
-  <si>
-    <t>Admin inputs all valid fields except for an invalid Event Name (Duration is greater than 45 characters) and submits the request</t>
-  </si>
-  <si>
-    <t>System informs the admin that the Duration is invalid.  The user is then required to  re-enter the Duration.</t>
-  </si>
-  <si>
-    <t>Admin inputs all valid fields except for an invalid Event Type  (Event Type is less than 1 characters) and submits the request</t>
-  </si>
-  <si>
-    <t>System informs the admin that the Event Type  is invalid.  The user is then required to  re-enter the Event Type.</t>
-  </si>
-  <si>
-    <t>Admin inputs all valid fields except for an invalid Event Type (Event Type is greater than 45 characters) and submits the request</t>
-  </si>
-  <si>
-    <t>System informs the admin that the Event Type is invalid.  The user is then required to  re-enter the Event Type.</t>
-  </si>
-  <si>
-    <t>Admin inputs all valid fields except for an invalid Seats Avalaible (Seats Avalaible is less than 0 numeric number) and submits the request</t>
-  </si>
-  <si>
-    <t>System informs the admin that the Seats Avalaible is invalid.  The user is then required to  re-enter the Seats Avalaible.</t>
-  </si>
-  <si>
-    <t>Visitor want to regist in a Event</t>
-  </si>
-  <si>
     <t>Visitor select an event and submits the request</t>
   </si>
   <si>
@@ -1427,9 +1346,6 @@
     <t>Visitor event register</t>
   </si>
   <si>
-    <t>Visitor want to unregist in a Event</t>
-  </si>
-  <si>
     <t>The event screen provides the event which the Visitor could be register</t>
   </si>
   <si>
@@ -1442,14 +1358,363 @@
     <t>View Events</t>
   </si>
   <si>
-    <t>Visitor want to view events</t>
+    <t>The event screen provides the event</t>
+  </si>
+  <si>
+    <t>System informs that the event was unregistered successfully.</t>
+  </si>
+  <si>
+    <t>System informs that the event available</t>
+  </si>
+  <si>
+    <t>Visitor searchEventList</t>
+  </si>
+  <si>
+    <t>System informs that the event  is not found</t>
+  </si>
+  <si>
+    <t>Alternative flow 1 - Searched event is not found in Event list</t>
+  </si>
+  <si>
+    <t>Visitor registers in a Event</t>
+  </si>
+  <si>
+    <t>Visitor view events</t>
+  </si>
+  <si>
+    <t>Visitor unregisters in a Event</t>
+  </si>
+  <si>
+    <t>Visitor searchs Event in a list</t>
+  </si>
+  <si>
+    <t>The event screen provides the events search results.</t>
+  </si>
+  <si>
+    <t>The searchEvent results  screen provides the events' information.</t>
+  </si>
+  <si>
+    <t>The event does not exist.</t>
+  </si>
+  <si>
+    <t>Admin can enter a valid Event Name</t>
+  </si>
+  <si>
+    <t>Admin can enter a valid Description</t>
+  </si>
+  <si>
+    <t>Admin can enter a valid Place</t>
+  </si>
+  <si>
+    <t>Admin can enter a valid Duration</t>
+  </si>
+  <si>
+    <t>Admin can enter a valid Event Type</t>
+  </si>
+  <si>
+    <t>Admin can enter a valid Seats Avalaible</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Event Name (Event Name is less than 1 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Event Name is invalid.  The user is then required to  re-enter the Event Name.</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Event Name (Event Name is greater than 45 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Description (Description is less than 1 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Description is invalid.  The user is then required to  re-enter the Description.</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Description(Description is greater than 45 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Place  (Place is less than 1 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Place is invalid.  The user is then required to  re-enter the Place .</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Place (Place is greater than 45 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Place  is invalid.  The user is then required to  re-enter the Place .</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Duration (Duration is less than 1 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Duration is invalid.  The user is then required to  re-enter the Duration .</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Event Name (Duration is greater than 45 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Duration is invalid.  The user is then required to  re-enter the Duration.</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Event Type  (Event Type is less than 1 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Event Type  is invalid.  The user is then required to  re-enter the Event Type.</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Event Type (Event Type is greater than 45 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Event Type is invalid.  The user is then required to  re-enter the Event Type.</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Seats Avalaible (Seats Avalaible is less than 0 numeric number) and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Seats Avalaible is invalid.  The user is then required to  re-enter the Seats Avalaible.</t>
+  </si>
+  <si>
+    <t>The event screen provides the facility to enter Event Name, Description, Place, Duration, Event Type, Seats Avalaible.</t>
+  </si>
+  <si>
+    <t>The event screen has the following fields to register a new event:
+Event Name, Description, Place, Duration, Event Type, Seats Avalaible.</t>
+  </si>
+  <si>
+    <t>Alternative Flow 1 - Field value fails validation rules</t>
+  </si>
+  <si>
+    <t>Admin clicks on Submit from the New Event Register screen.</t>
+  </si>
+  <si>
+    <t>System validates data and insert the new event.</t>
+  </si>
+  <si>
+    <t>Insert Event - main flow</t>
+  </si>
+  <si>
+    <t>Admin Inserts New Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert new events </t>
+  </si>
+  <si>
+    <t>Admin Update Event</t>
+  </si>
+  <si>
+    <t>Update event</t>
+  </si>
+  <si>
+    <t>The event screen provides the facility to update Event Name, Description, Place, Duration, Event Type, Seats Avalaible.</t>
+  </si>
+  <si>
+    <t>The event screen has the following fields to update the event:
+Event Name, Description, Place, Duration, Event Type, Seats Avalaible.</t>
+  </si>
+  <si>
+    <t>Admin select an event and submits the request</t>
+  </si>
+  <si>
+    <t>Delete Event</t>
+  </si>
+  <si>
+    <t>Admin delete Event</t>
+  </si>
+  <si>
+    <t>The event screen provides the events' information</t>
+  </si>
+  <si>
+    <t>System informs that the event was deleted successfully.</t>
+  </si>
+  <si>
+    <t>Visitor update password</t>
+  </si>
+  <si>
+    <t>Visitor update his password</t>
+  </si>
+  <si>
+    <t>The update account screen provides the facility to change  Password and Confirm Password.</t>
+  </si>
+  <si>
+    <t>The update account screen has the following fields to allow the Visitor to enter the required information for their account:
+Password and Confirm Password.</t>
+  </si>
+  <si>
+    <t>Update Visitor Password - main flow</t>
+  </si>
+  <si>
+    <t>Alternative flow 2- Field value fails validation rules</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs an invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (password is less than 6 characters long), and submits the request</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs an invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (password is greater than 15 characters long), and submits the request</t>
+    </r>
+  </si>
+  <si>
+    <t>Alternative flow 1 - Password / Confirm Password not the same</t>
+  </si>
+  <si>
+    <t>Admin Inserts New Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert new place </t>
+  </si>
+  <si>
+    <t>The event screen has the following fields to register a new place:
+Name, Description, Zone, Image, Address.</t>
+  </si>
+  <si>
+    <t>Admin can enter a valid Name</t>
+  </si>
+  <si>
+    <t>Admin can enter a valid Zone</t>
+  </si>
+  <si>
+    <t>Admin can enter a valid Image</t>
+  </si>
+  <si>
+    <t>Admin can enter a valid Adress</t>
+  </si>
+  <si>
+    <t>The place screen provides the facility to enter Name, Description, Zone, Image, Address.</t>
+  </si>
+  <si>
+    <t>Admin clicks on Submit from the place screen.</t>
+  </si>
+  <si>
+    <t>Insert Place - main flow</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Place Name (Place Name is less than 1 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Place Name is invalid.  The user is then required to  re-enter the Place Name.</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Place Name (Place Name is greater than 15 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Description(Description is greater than 1000 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Zone (zone is less than 1 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Zone is invalid.  The user is then required to  re-enter the Zone .</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Image and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Image is invalid.  The user is then required to  re-enter the Image .</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Address (Address is less than 1 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Address  is invalid.  The user is then required to  re-enter the Address.</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Address (Address is greater than 30 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Address is invalid.  The user is then required to  re-enter the Address.</t>
+  </si>
+  <si>
+    <t>Admin Update a Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update place </t>
+  </si>
+  <si>
+    <t>System validates data and insert the new place.</t>
+  </si>
+  <si>
+    <t>System validates data and update the place.</t>
+  </si>
+  <si>
+    <t>The place screen provides the facility to update Name, Description, Region, Image, Address.</t>
+  </si>
+  <si>
+    <t>The event screen has the following fields to update a place:
+Name, Description, Region, Image, Address.</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Region (Region is less than 1 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>Admin inputs all valid fields except for an invalid Region (Region is greater than 45 characters) and submits the request</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Region is invalid.  The user is then required to  re-enter the Region.</t>
+  </si>
+  <si>
+    <t>System informs the admin that the Region is invalid.  The user is then required to  re-enter the Region .</t>
+  </si>
+  <si>
+    <t>Delete Place</t>
+  </si>
+  <si>
+    <t>Admin delete Place</t>
+  </si>
+  <si>
+    <t>The place screen provides the places' information.</t>
+  </si>
+  <si>
+    <t>System informs that the place was deleted successfully.</t>
+  </si>
+  <si>
+    <t>The place screen provides the places' information</t>
+  </si>
+  <si>
+    <t>Admin select an place and submits the request</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1600,6 +1865,13 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1644,7 +1916,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1856,12 +2128,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1959,6 +2244,23 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1995,20 +2297,11 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2459,136 +2752,136 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="45"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="52"/>
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="48"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="55"/>
       <c r="N16" s="36"/>
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="48"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="55"/>
       <c r="N17" s="36"/>
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="48"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="55"/>
       <c r="N18" s="36"/>
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="55"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="36"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="48"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="55"/>
       <c r="N20" s="36"/>
       <c r="O20" s="36"/>
       <c r="P20" s="36"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="48"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="55"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="51"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2668,12 +2961,12 @@
       <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2692,11 +2985,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4049"/>
+  <dimension ref="A1:E4111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
+      <pane ySplit="3" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D255" sqref="D255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2752,7 +3045,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>26</v>
@@ -2765,7 +3058,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>26</v>
@@ -2778,7 +3071,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>26</v>
@@ -2791,7 +3084,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>26</v>
@@ -2804,7 +3097,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>26</v>
@@ -2817,7 +3110,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>26</v>
@@ -2830,7 +3123,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>26</v>
@@ -2843,7 +3136,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>26</v>
@@ -2856,7 +3149,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>26</v>
@@ -2875,7 +3168,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="38.25">
@@ -2884,13 +3177,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="38.25">
@@ -2899,13 +3192,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="38.25">
@@ -2914,13 +3207,13 @@
         <v>14</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="38.25">
@@ -2929,13 +3222,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="51">
@@ -2944,13 +3237,13 @@
         <v>16</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="38.25">
@@ -2959,13 +3252,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="38.25">
@@ -2974,13 +3267,13 @@
         <v>18</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D21" s="39" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="63.75">
@@ -2989,13 +3282,13 @@
         <v>19</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="63.75">
@@ -3004,13 +3297,13 @@
         <v>20</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D23" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="38.25">
@@ -3019,13 +3312,13 @@
         <v>21</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="63.75">
@@ -3034,13 +3327,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="D25" s="39" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="63.75">
@@ -3049,13 +3342,13 @@
         <v>23</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D26" s="39" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="63.75">
@@ -3064,13 +3357,13 @@
         <v>24</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="63.75">
@@ -3079,13 +3372,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="63.75">
@@ -3094,13 +3387,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="63.75">
@@ -3109,13 +3402,13 @@
         <v>27</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="38.25">
@@ -3124,13 +3417,13 @@
         <v>28</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="51">
@@ -3139,13 +3432,13 @@
         <v>29</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D32" s="39" t="s">
         <v>29</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="70.5" customHeight="1">
@@ -3154,13 +3447,13 @@
         <v>30</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="51">
@@ -3169,13 +3462,13 @@
         <v>31</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="63.75">
@@ -3184,13 +3477,13 @@
         <v>32</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>45</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="51">
@@ -3199,13 +3492,13 @@
         <v>33</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="51">
@@ -3214,13 +3507,13 @@
         <v>34</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="51">
@@ -3229,13 +3522,13 @@
         <v>35</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="51">
@@ -3244,13 +3537,13 @@
         <v>36</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E39" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="51">
@@ -3258,14 +3551,14 @@
       <c r="B40" s="29">
         <v>37</v>
       </c>
-      <c r="C40" s="55" t="s">
-        <v>114</v>
+      <c r="C40" s="43" t="s">
+        <v>87</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="51">
@@ -3274,13 +3567,13 @@
         <v>38</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="76.5">
@@ -3289,13 +3582,13 @@
         <v>39</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D42" s="32" t="s">
         <v>30</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="76.5">
@@ -3304,13 +3597,13 @@
         <v>40</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D43" s="32" t="s">
         <v>30</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="63.75">
@@ -3319,13 +3612,13 @@
         <v>41</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>30</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="51">
@@ -3334,13 +3627,13 @@
         <v>42</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D45" s="39" t="s">
         <v>47</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="38.25">
@@ -3349,32 +3642,32 @@
         <v>43</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="56"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="56"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="27" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="38.25">
@@ -3402,10 +3695,10 @@
         <v>1</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="D52" s="39" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="E52" s="39"/>
     </row>
@@ -3415,13 +3708,13 @@
         <v>2</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D53" s="39" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="51">
@@ -3430,13 +3723,13 @@
         <v>3</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="51">
@@ -3445,39 +3738,39 @@
         <v>4</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D55" s="39" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="56"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="56"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="56"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="27" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="38.25">
@@ -3499,16 +3792,16 @@
     </row>
     <row r="62" spans="1:5" ht="102">
       <c r="A62" s="38" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="B62" s="29">
         <v>1</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D62" s="39" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="E62" s="39"/>
     </row>
@@ -3518,7 +3811,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D63" s="32" t="s">
         <v>26</v>
@@ -3531,7 +3824,7 @@
         <v>3</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D64" s="32" t="s">
         <v>26</v>
@@ -3544,7 +3837,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D65" s="32" t="s">
         <v>26</v>
@@ -3557,7 +3850,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="D66" s="32" t="s">
         <v>26</v>
@@ -3570,7 +3863,7 @@
         <v>6</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D67" s="32" t="s">
         <v>26</v>
@@ -3583,7 +3876,7 @@
         <v>7</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D68" s="32" t="s">
         <v>26</v>
@@ -3596,7 +3889,7 @@
         <v>8</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D69" s="32" t="s">
         <v>26</v>
@@ -3609,7 +3902,7 @@
         <v>9</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="D70" s="32" t="s">
         <v>26</v>
@@ -3622,13 +3915,13 @@
         <v>10</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="D71" s="39" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E71" s="39" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="38.25">
@@ -3637,13 +3930,13 @@
         <v>11</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D72" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="E72" s="60" t="s">
-        <v>149</v>
+      <c r="E72" s="49" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="38.25">
@@ -3652,13 +3945,13 @@
         <v>12</v>
       </c>
       <c r="C73" s="39" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D73" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E73" s="60" t="s">
-        <v>149</v>
+      <c r="E73" s="49" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="38.25">
@@ -3667,13 +3960,13 @@
         <v>13</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D74" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="E74" s="60" t="s">
-        <v>149</v>
+      <c r="E74" s="49" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="51">
@@ -3682,13 +3975,13 @@
         <v>14</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D75" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E75" s="60" t="s">
-        <v>149</v>
+      <c r="E75" s="49" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="38.25">
@@ -3697,13 +3990,13 @@
         <v>15</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D76" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="E76" s="60" t="s">
-        <v>149</v>
+      <c r="E76" s="49" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="38.25">
@@ -3712,12 +4005,12 @@
         <v>16</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D77" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E77" s="60"/>
+      <c r="E77" s="49"/>
     </row>
     <row r="78" spans="1:5" ht="63.75">
       <c r="A78" s="13"/>
@@ -3725,13 +4018,13 @@
         <v>17</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="D78" s="39" t="s">
         <v>43</v>
       </c>
       <c r="E78" s="39" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="63.75">
@@ -3740,13 +4033,13 @@
         <v>18</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D79" s="39" t="s">
         <v>43</v>
       </c>
       <c r="E79" s="39" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="63.75">
@@ -3755,13 +4048,13 @@
         <v>19</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D80" s="39" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E80" s="39" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="63.75">
@@ -3770,13 +4063,13 @@
         <v>20</v>
       </c>
       <c r="C81" s="39" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D81" s="39" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E81" s="39" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="63.75">
@@ -3785,13 +4078,13 @@
         <v>21</v>
       </c>
       <c r="C82" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E82" s="39" t="s">
         <v>123</v>
-      </c>
-      <c r="D82" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="E82" s="39" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="63.75">
@@ -3800,13 +4093,13 @@
         <v>22</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D83" s="39" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E83" s="39" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="38.25">
@@ -3815,13 +4108,13 @@
         <v>23</v>
       </c>
       <c r="C84" s="39" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D84" s="39" t="s">
         <v>29</v>
       </c>
       <c r="E84" s="39" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="51">
@@ -3830,13 +4123,13 @@
         <v>24</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D85" s="39" t="s">
         <v>29</v>
       </c>
       <c r="E85" s="39" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="51">
@@ -3845,13 +4138,13 @@
         <v>25</v>
       </c>
       <c r="C86" s="39" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D86" s="39" t="s">
         <v>44</v>
       </c>
       <c r="E86" s="39" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="51">
@@ -3860,13 +4153,13 @@
         <v>26</v>
       </c>
       <c r="C87" s="39" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="D87" s="39" t="s">
         <v>45</v>
       </c>
       <c r="E87" s="39" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="63.75">
@@ -3875,13 +4168,13 @@
         <v>27</v>
       </c>
       <c r="C88" s="39" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D88" s="39" t="s">
         <v>45</v>
       </c>
       <c r="E88" s="39" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="51">
@@ -3890,13 +4183,13 @@
         <v>28</v>
       </c>
       <c r="C89" s="39" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="D89" s="39" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E89" s="39" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="51">
@@ -3905,13 +4198,13 @@
         <v>29</v>
       </c>
       <c r="C90" s="42" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D90" s="42" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E90" s="39" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="51">
@@ -3920,13 +4213,13 @@
         <v>30</v>
       </c>
       <c r="C91" s="39" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D91" s="42" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E91" s="39" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="51">
@@ -3935,13 +4228,13 @@
         <v>31</v>
       </c>
       <c r="C92" s="39" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D92" s="39" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E92" s="39" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="51">
@@ -3949,14 +4242,14 @@
       <c r="B93" s="29">
         <v>32</v>
       </c>
-      <c r="C93" s="55" t="s">
-        <v>114</v>
+      <c r="C93" s="43" t="s">
+        <v>87</v>
       </c>
       <c r="D93" s="39" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E93" s="39" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="51">
@@ -3965,13 +4258,13 @@
         <v>33</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="D94" s="39" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E94" s="39" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="76.5">
@@ -3980,13 +4273,13 @@
         <v>34</v>
       </c>
       <c r="C95" s="39" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D95" s="32" t="s">
         <v>30</v>
       </c>
       <c r="E95" s="39" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="76.5">
@@ -3995,13 +4288,13 @@
         <v>35</v>
       </c>
       <c r="C96" s="39" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D96" s="32" t="s">
         <v>30</v>
       </c>
       <c r="E96" s="39" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="63.75">
@@ -4010,13 +4303,13 @@
         <v>36</v>
       </c>
       <c r="C97" s="39" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="D97" s="39" t="s">
         <v>30</v>
       </c>
       <c r="E97" s="39" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="51">
@@ -4025,13 +4318,13 @@
         <v>37</v>
       </c>
       <c r="C98" s="39" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D98" s="39" t="s">
         <v>47</v>
       </c>
       <c r="E98" s="39" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="38.25">
@@ -4040,13 +4333,13 @@
         <v>38</v>
       </c>
       <c r="C99" s="39" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D99" s="39" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="E99" s="39" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4058,7 +4351,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="27" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="38.25">
@@ -4080,16 +4373,16 @@
     </row>
     <row r="104" spans="1:5" ht="38.25">
       <c r="A104" s="15" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="B104" s="29">
         <v>1</v>
       </c>
       <c r="C104" s="39" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="D104" s="39" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="E104" s="39"/>
     </row>
@@ -4098,10 +4391,10 @@
         <v>2</v>
       </c>
       <c r="C105" s="39" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D105" s="39" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E105" s="32"/>
     </row>
@@ -4111,23 +4404,23 @@
         <v>3</v>
       </c>
       <c r="C106" s="39" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D106" s="39" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E106" s="32"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="56"/>
-      <c r="B107" s="57"/>
-      <c r="C107" s="58"/>
-      <c r="D107" s="58"/>
-      <c r="E107" s="59"/>
+      <c r="A107" s="44"/>
+      <c r="B107" s="45"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="47"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="27" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="38.25">
@@ -4147,20 +4440,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="38.25">
+    <row r="111" spans="1:5" ht="25.5">
       <c r="A111" s="15" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B111" s="29">
         <v>1</v>
       </c>
       <c r="C111" s="39" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="D111" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="E111" s="39"/>
+        <v>127</v>
+      </c>
+      <c r="E111" s="39" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="112" spans="1:5" ht="25.5">
       <c r="A112" s="15"/>
@@ -4168,22 +4463,22 @@
         <v>2</v>
       </c>
       <c r="C112" s="39" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D112" s="39" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E112" s="32"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="B113" s="57"/>
-      <c r="C113" s="58"/>
-      <c r="D113" s="58"/>
-      <c r="E113" s="59"/>
+      <c r="B113" s="45"/>
+      <c r="C113" s="46"/>
+      <c r="D113" s="46"/>
+      <c r="E113" s="47"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="27" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="38.25">
@@ -4205,18 +4500,20 @@
     </row>
     <row r="117" spans="1:5" ht="38.25">
       <c r="A117" s="15" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B117" s="29">
         <v>1</v>
       </c>
       <c r="C117" s="39" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="D117" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="E117" s="39"/>
+        <v>127</v>
+      </c>
+      <c r="E117" s="39" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="118" spans="1:5" ht="25.5">
       <c r="A118" s="15"/>
@@ -4224,236 +4521,1469 @@
         <v>2</v>
       </c>
       <c r="C118" s="39" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D118" s="39" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E118" s="32"/>
     </row>
-    <row r="119" spans="1:5" ht="25.5">
-      <c r="A119" s="13"/>
-      <c r="B119" s="29">
+    <row r="120" spans="1:5" ht="15">
+      <c r="E120" s="48"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="38.25">
+      <c r="A124" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E124" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="25.5">
+      <c r="A125" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B125" s="29">
+        <v>1</v>
+      </c>
+      <c r="C125" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D125" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E125" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="25.5">
+      <c r="A126" s="15"/>
+      <c r="B126" s="29">
+        <v>2</v>
+      </c>
+      <c r="C126" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D126" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="E126" s="39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15">
+      <c r="E128" s="48"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="38.25">
+      <c r="A131" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="63.75">
+      <c r="A132" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B132" s="62">
+        <v>1</v>
+      </c>
+      <c r="C132" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D132" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="E132" s="39"/>
+    </row>
+    <row r="133" spans="1:5" ht="25.5">
+      <c r="A133" s="13"/>
+      <c r="B133" s="62">
+        <v>2</v>
+      </c>
+      <c r="C133" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D133" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E133" s="39"/>
+    </row>
+    <row r="134" spans="1:5" ht="25.5">
+      <c r="A134" s="13"/>
+      <c r="B134" s="62">
         <v>3</v>
       </c>
-      <c r="C119" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D119" s="32" t="s">
+      <c r="C134" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D134" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E119" s="32"/>
-    </row>
-    <row r="120" spans="1:5" ht="25.5">
-      <c r="A120" s="13"/>
-      <c r="B120" s="29">
+      <c r="E134" s="39"/>
+    </row>
+    <row r="135" spans="1:5" ht="25.5">
+      <c r="A135" s="13"/>
+      <c r="B135" s="62">
         <v>4</v>
       </c>
-      <c r="C120" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D120" s="32" t="s">
+      <c r="C135" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D135" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E120" s="32"/>
-    </row>
-    <row r="121" spans="1:5" ht="25.5">
-      <c r="A121" s="13"/>
-      <c r="B121" s="29">
+      <c r="E135" s="39"/>
+    </row>
+    <row r="136" spans="1:5" ht="25.5">
+      <c r="A136" s="13"/>
+      <c r="B136" s="62">
         <v>5</v>
       </c>
-      <c r="C121" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D121" s="32" t="s">
+      <c r="C136" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D136" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E121" s="32"/>
-    </row>
-    <row r="122" spans="1:5" ht="25.5">
-      <c r="A122" s="13"/>
-      <c r="B122" s="29">
+      <c r="E136" s="39"/>
+    </row>
+    <row r="137" spans="1:5" ht="25.5">
+      <c r="A137" s="13"/>
+      <c r="B137" s="62">
         <v>6</v>
       </c>
-      <c r="C122" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D122" s="32" t="s">
+      <c r="C137" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D137" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E122" s="32"/>
-    </row>
-    <row r="123" spans="1:5" ht="25.5">
-      <c r="A123" s="13"/>
-      <c r="B123" s="29">
+      <c r="E137" s="39"/>
+    </row>
+    <row r="138" spans="1:5" ht="25.5">
+      <c r="A138" s="13"/>
+      <c r="B138" s="62">
         <v>7</v>
       </c>
-      <c r="C123" s="39" t="s">
+      <c r="C138" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D138" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E138" s="39"/>
+    </row>
+    <row r="139" spans="1:5" ht="25.5">
+      <c r="A139" s="13"/>
+      <c r="B139" s="62">
+        <v>8</v>
+      </c>
+      <c r="C139" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D139" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E139" s="39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="63.75">
+      <c r="A140" s="13"/>
+      <c r="B140" s="62">
+        <v>9</v>
+      </c>
+      <c r="C140" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D140" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E140" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="63.75">
+      <c r="A141" s="13"/>
+      <c r="B141" s="62">
+        <v>10</v>
+      </c>
+      <c r="C141" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D141" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E141" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="63.75">
+      <c r="A142" s="13"/>
+      <c r="B142" s="62">
+        <v>11</v>
+      </c>
+      <c r="C142" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D142" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E142" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="63.75">
+      <c r="A143" s="13"/>
+      <c r="B143" s="62">
+        <v>12</v>
+      </c>
+      <c r="C143" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D143" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E143" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="51">
+      <c r="A144" s="13"/>
+      <c r="B144" s="62">
+        <v>13</v>
+      </c>
+      <c r="C144" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D144" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="E144" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="63.75">
+      <c r="A145" s="13"/>
+      <c r="B145" s="62">
+        <v>14</v>
+      </c>
+      <c r="C145" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D145" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E145" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="63.75">
+      <c r="A146" s="13"/>
+      <c r="B146" s="62">
+        <v>15</v>
+      </c>
+      <c r="C146" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D146" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E146" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="63.75">
+      <c r="A147" s="13"/>
+      <c r="B147" s="62">
+        <v>16</v>
+      </c>
+      <c r="C147" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D147" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E147" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="63.75">
+      <c r="A148" s="13"/>
+      <c r="B148" s="62">
+        <v>17</v>
+      </c>
+      <c r="C148" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D148" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E148" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="63.75">
+      <c r="A149" s="13"/>
+      <c r="B149" s="62">
+        <v>18</v>
+      </c>
+      <c r="C149" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D149" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E149" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="63.75">
+      <c r="A150" s="13"/>
+      <c r="B150" s="62">
+        <v>19</v>
+      </c>
+      <c r="C150" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D150" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E150" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="38.25">
+      <c r="A155" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="63.75">
+      <c r="A156" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B156" s="62">
+        <v>1</v>
+      </c>
+      <c r="C156" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D156" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="E156" s="39"/>
+    </row>
+    <row r="157" spans="1:5" ht="25.5">
+      <c r="A157" s="13"/>
+      <c r="B157" s="62">
+        <v>2</v>
+      </c>
+      <c r="C157" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D157" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E157" s="39"/>
+    </row>
+    <row r="158" spans="1:5" ht="25.5">
+      <c r="A158" s="13"/>
+      <c r="B158" s="62">
+        <v>3</v>
+      </c>
+      <c r="C158" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D158" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E158" s="39"/>
+    </row>
+    <row r="159" spans="1:5" ht="25.5">
+      <c r="A159" s="13"/>
+      <c r="B159" s="62">
+        <v>4</v>
+      </c>
+      <c r="C159" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D159" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E159" s="39"/>
+    </row>
+    <row r="160" spans="1:5" ht="25.5">
+      <c r="A160" s="13"/>
+      <c r="B160" s="62">
+        <v>5</v>
+      </c>
+      <c r="C160" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D160" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E160" s="39"/>
+    </row>
+    <row r="161" spans="1:5" ht="25.5">
+      <c r="A161" s="13"/>
+      <c r="B161" s="62">
+        <v>6</v>
+      </c>
+      <c r="C161" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D161" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E161" s="39"/>
+    </row>
+    <row r="162" spans="1:5" ht="25.5">
+      <c r="A162" s="13"/>
+      <c r="B162" s="62">
+        <v>7</v>
+      </c>
+      <c r="C162" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D162" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E162" s="39"/>
+    </row>
+    <row r="163" spans="1:5" ht="25.5">
+      <c r="A163" s="13"/>
+      <c r="B163" s="62">
+        <v>8</v>
+      </c>
+      <c r="C163" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D163" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E163" s="39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="63.75">
+      <c r="A164" s="13"/>
+      <c r="B164" s="62">
+        <v>9</v>
+      </c>
+      <c r="C164" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D164" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E164" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="63.75">
+      <c r="A165" s="13"/>
+      <c r="B165" s="62">
+        <v>10</v>
+      </c>
+      <c r="C165" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D165" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E165" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="63.75">
+      <c r="A166" s="13"/>
+      <c r="B166" s="62">
+        <v>11</v>
+      </c>
+      <c r="C166" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D166" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E166" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="63.75">
+      <c r="A167" s="13"/>
+      <c r="B167" s="62">
+        <v>12</v>
+      </c>
+      <c r="C167" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D167" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E167" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="51">
+      <c r="A168" s="13"/>
+      <c r="B168" s="62">
+        <v>13</v>
+      </c>
+      <c r="C168" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D168" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="E168" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="63.75">
+      <c r="A169" s="13"/>
+      <c r="B169" s="62">
+        <v>14</v>
+      </c>
+      <c r="C169" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D169" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E169" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="63.75">
+      <c r="A170" s="13"/>
+      <c r="B170" s="62">
+        <v>15</v>
+      </c>
+      <c r="C170" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D170" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E170" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="63.75">
+      <c r="A171" s="13"/>
+      <c r="B171" s="62">
+        <v>16</v>
+      </c>
+      <c r="C171" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D171" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E171" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="63.75">
+      <c r="A172" s="13"/>
+      <c r="B172" s="62">
+        <v>17</v>
+      </c>
+      <c r="C172" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D172" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E172" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="63.75">
+      <c r="A173" s="13"/>
+      <c r="B173" s="62">
+        <v>18</v>
+      </c>
+      <c r="C173" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D173" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E173" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="63.75">
+      <c r="A174" s="13"/>
+      <c r="B174" s="62">
+        <v>19</v>
+      </c>
+      <c r="C174" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D174" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E174" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="38.25">
+      <c r="A180" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E180" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="25.5">
+      <c r="A181" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B181" s="29">
+        <v>1</v>
+      </c>
+      <c r="C181" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D181" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E181" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D123" s="32" t="s">
+    </row>
+    <row r="182" spans="1:5" ht="25.5">
+      <c r="A182" s="15"/>
+      <c r="B182" s="29">
+        <v>2</v>
+      </c>
+      <c r="C182" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="D182" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E182" s="32"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="38.25">
+      <c r="A188" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E188" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="63.75">
+      <c r="A189" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B189" s="29">
+        <v>1</v>
+      </c>
+      <c r="C189" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="D189" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E189" s="39"/>
+    </row>
+    <row r="190" spans="1:5" ht="25.5">
+      <c r="A190" s="13"/>
+      <c r="B190" s="29">
+        <v>2</v>
+      </c>
+      <c r="C190" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D190" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E123" s="32"/>
-    </row>
-    <row r="124" spans="1:5" ht="25.5">
-      <c r="A124" s="13"/>
-      <c r="B124" s="29">
+      <c r="E190" s="32"/>
+    </row>
+    <row r="191" spans="1:5" ht="25.5">
+      <c r="A191" s="13"/>
+      <c r="B191" s="29">
         <v>8</v>
       </c>
-      <c r="C124" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D124" s="32" t="s">
+      <c r="C191" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D191" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E124" s="32"/>
-    </row>
-    <row r="125" spans="1:5" ht="63.75">
-      <c r="A125" s="13"/>
-      <c r="B125" s="29">
+      <c r="E191" s="32"/>
+    </row>
+    <row r="192" spans="1:5" ht="38.25">
+      <c r="A192" s="13"/>
+      <c r="B192" s="29">
+        <v>10</v>
+      </c>
+      <c r="C192" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D192" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E192" s="39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="38.25">
+      <c r="A193" s="13"/>
+      <c r="B193" s="29">
+        <v>13</v>
+      </c>
+      <c r="C193" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D193" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E193" s="63" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="51">
+      <c r="A194" s="13"/>
+      <c r="B194" s="29">
+        <v>14</v>
+      </c>
+      <c r="C194" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D194" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E194" s="64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="38.25">
+      <c r="A195" s="13"/>
+      <c r="B195" s="29">
+        <v>16</v>
+      </c>
+      <c r="C195" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D195" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="64"/>
+    </row>
+    <row r="196" spans="1:5" ht="51">
+      <c r="A196" s="13"/>
+      <c r="B196" s="29">
+        <v>17</v>
+      </c>
+      <c r="C196" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="D196" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E196" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="51">
+      <c r="A197" s="13"/>
+      <c r="B197" s="29">
+        <v>18</v>
+      </c>
+      <c r="C197" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D197" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E197" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="38.25">
+      <c r="A198" s="13"/>
+      <c r="B198" s="29">
+        <v>23</v>
+      </c>
+      <c r="C198" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D198" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E198" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="51">
+      <c r="A199" s="13"/>
+      <c r="B199" s="29">
+        <v>24</v>
+      </c>
+      <c r="C199" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D199" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E199" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="51">
+      <c r="A200" s="13"/>
+      <c r="B200" s="29">
+        <v>25</v>
+      </c>
+      <c r="C200" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D200" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E200" s="39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="38.25">
+      <c r="A207" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D207" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E207" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="51">
+      <c r="A208" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B208" s="62">
+        <v>1</v>
+      </c>
+      <c r="C208" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D208" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="E208" s="39"/>
+    </row>
+    <row r="209" spans="1:5" ht="25.5">
+      <c r="A209" s="13"/>
+      <c r="B209" s="62">
+        <v>2</v>
+      </c>
+      <c r="C209" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D209" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E209" s="39"/>
+    </row>
+    <row r="210" spans="1:5" ht="25.5">
+      <c r="A210" s="13"/>
+      <c r="B210" s="62">
+        <v>3</v>
+      </c>
+      <c r="C210" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D210" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E210" s="39"/>
+    </row>
+    <row r="211" spans="1:5" ht="25.5">
+      <c r="A211" s="13"/>
+      <c r="B211" s="62">
+        <v>4</v>
+      </c>
+      <c r="C211" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="D211" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E211" s="39"/>
+    </row>
+    <row r="212" spans="1:5" ht="25.5">
+      <c r="A212" s="13"/>
+      <c r="B212" s="62">
+        <v>5</v>
+      </c>
+      <c r="C212" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="D212" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E212" s="39"/>
+    </row>
+    <row r="213" spans="1:5" ht="25.5">
+      <c r="A213" s="13"/>
+      <c r="B213" s="62">
+        <v>6</v>
+      </c>
+      <c r="C213" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D213" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E213" s="39"/>
+    </row>
+    <row r="214" spans="1:5" ht="25.5">
+      <c r="A214" s="13"/>
+      <c r="B214" s="62">
+        <v>8</v>
+      </c>
+      <c r="C214" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D214" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="E214" s="39" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="63.75">
+      <c r="A215" s="13"/>
+      <c r="B215" s="62">
         <v>9</v>
       </c>
-      <c r="C125" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D125" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="E125" s="32"/>
-    </row>
-    <row r="126" spans="1:5" ht="63.75">
-      <c r="A126" s="13"/>
-      <c r="B126" s="29">
+      <c r="C215" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="D215" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="E215" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="63.75">
+      <c r="A216" s="13"/>
+      <c r="B216" s="62">
         <v>10</v>
       </c>
-      <c r="C126" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D126" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="E126" s="32"/>
-    </row>
-    <row r="127" spans="1:5" ht="63.75">
-      <c r="A127" s="13"/>
-      <c r="B127" s="29">
+      <c r="C216" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="D216" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="E216" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="63.75">
+      <c r="A217" s="13"/>
+      <c r="B217" s="62">
         <v>11</v>
       </c>
-      <c r="C127" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D127" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E127" s="32"/>
-    </row>
-    <row r="128" spans="1:5" ht="63.75">
-      <c r="A128" s="13"/>
-      <c r="B128" s="29">
+      <c r="C217" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D217" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E217" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="63.75">
+      <c r="A218" s="13"/>
+      <c r="B218" s="62">
         <v>12</v>
       </c>
-      <c r="C128" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D128" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E128" s="32"/>
-    </row>
-    <row r="129" spans="1:5" ht="51">
-      <c r="A129" s="13"/>
-      <c r="B129" s="29">
+      <c r="C218" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D218" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E218" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="51">
+      <c r="A219" s="13"/>
+      <c r="B219" s="62">
         <v>13</v>
       </c>
-      <c r="C129" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D129" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E129" s="32"/>
-    </row>
-    <row r="130" spans="1:5" ht="63.75">
-      <c r="A130" s="13"/>
-      <c r="B130" s="29">
+      <c r="C219" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="D219" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="E219" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="50.25" customHeight="1">
+      <c r="A220" s="13"/>
+      <c r="B220" s="62">
+        <v>13</v>
+      </c>
+      <c r="C220" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D220" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="E220" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="63.75">
+      <c r="A221" s="13"/>
+      <c r="B221" s="62">
         <v>14</v>
       </c>
-      <c r="C130" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D130" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="E130" s="32"/>
-    </row>
-    <row r="131" spans="1:5" ht="63.75">
-      <c r="A131" s="13"/>
-      <c r="B131" s="29">
+      <c r="C221" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D221" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="E221" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="63.75">
+      <c r="A222" s="13"/>
+      <c r="B222" s="62">
+        <v>17</v>
+      </c>
+      <c r="C222" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="D222" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="E222" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="63.75">
+      <c r="A223" s="13"/>
+      <c r="B223" s="62">
+        <v>12</v>
+      </c>
+      <c r="C223" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="D223" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="E223" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="38.25">
+      <c r="A230" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C131" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D131" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E131" s="32"/>
-    </row>
-    <row r="132" spans="1:5" ht="63.75">
-      <c r="A132" s="13"/>
-      <c r="B132" s="29">
+      <c r="D230" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C132" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D132" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E132" s="32"/>
-    </row>
-    <row r="133" spans="1:5" ht="63.75">
-      <c r="A133" s="13"/>
-      <c r="B133" s="29">
+      <c r="E230" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C133" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D133" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E133" s="32"/>
-    </row>
-    <row r="134" spans="1:5" ht="63.75">
-      <c r="A134" s="13"/>
-      <c r="B134" s="29">
-        <v>18</v>
-      </c>
-      <c r="C134" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="D134" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E134" s="32"/>
-    </row>
-    <row r="135" spans="1:5" ht="63.75">
-      <c r="A135" s="13"/>
-      <c r="B135" s="29">
-        <v>19</v>
-      </c>
-      <c r="C135" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="D135" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E135" s="32"/>
-    </row>
-    <row r="4049" spans="1:1">
-      <c r="A4049" s="12" t="s">
+    </row>
+    <row r="231" spans="1:5" ht="51">
+      <c r="A231" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B231" s="62">
+        <v>1</v>
+      </c>
+      <c r="C231" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="D231" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="E231" s="39"/>
+    </row>
+    <row r="232" spans="1:5" ht="25.5">
+      <c r="A232" s="13"/>
+      <c r="B232" s="62">
+        <v>2</v>
+      </c>
+      <c r="C232" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D232" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E232" s="39"/>
+    </row>
+    <row r="233" spans="1:5" ht="25.5">
+      <c r="A233" s="13"/>
+      <c r="B233" s="62">
+        <v>3</v>
+      </c>
+      <c r="C233" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D233" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E233" s="39"/>
+    </row>
+    <row r="234" spans="1:5" ht="25.5">
+      <c r="A234" s="13"/>
+      <c r="B234" s="62">
+        <v>4</v>
+      </c>
+      <c r="C234" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="D234" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E234" s="39"/>
+    </row>
+    <row r="235" spans="1:5" ht="25.5">
+      <c r="A235" s="13"/>
+      <c r="B235" s="62">
+        <v>5</v>
+      </c>
+      <c r="C235" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="D235" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E235" s="39"/>
+    </row>
+    <row r="236" spans="1:5" ht="25.5">
+      <c r="A236" s="13"/>
+      <c r="B236" s="62">
+        <v>6</v>
+      </c>
+      <c r="C236" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D236" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E236" s="39"/>
+    </row>
+    <row r="237" spans="1:5" ht="25.5">
+      <c r="A237" s="13"/>
+      <c r="B237" s="62">
+        <v>8</v>
+      </c>
+      <c r="C237" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D237" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="E237" s="39" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="63.75">
+      <c r="A238" s="13"/>
+      <c r="B238" s="62">
+        <v>9</v>
+      </c>
+      <c r="C238" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="D238" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="E238" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="63.75">
+      <c r="A239" s="13"/>
+      <c r="B239" s="62">
+        <v>10</v>
+      </c>
+      <c r="C239" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="D239" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="E239" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="63.75">
+      <c r="A240" s="13"/>
+      <c r="B240" s="62">
+        <v>11</v>
+      </c>
+      <c r="C240" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D240" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E240" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="63.75">
+      <c r="A241" s="13"/>
+      <c r="B241" s="62">
+        <v>12</v>
+      </c>
+      <c r="C241" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D241" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E241" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="63.75">
+      <c r="A242" s="13"/>
+      <c r="B242" s="62">
+        <v>13</v>
+      </c>
+      <c r="C242" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D242" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="E242" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="63.75">
+      <c r="A243" s="13"/>
+      <c r="B243" s="62">
+        <v>14</v>
+      </c>
+      <c r="C243" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D243" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="E243" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="38.25">
+      <c r="A244" s="13"/>
+      <c r="B244" s="62">
+        <v>15</v>
+      </c>
+      <c r="C244" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="D244" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="E244" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="63.75">
+      <c r="A245" s="13"/>
+      <c r="B245" s="62">
+        <v>17</v>
+      </c>
+      <c r="C245" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="D245" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="E245" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="63.75">
+      <c r="A246" s="13"/>
+      <c r="B246" s="62">
+        <v>12</v>
+      </c>
+      <c r="C246" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="D246" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="E246" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="38.25">
+      <c r="A251" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B251" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C251" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D251" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E251" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="25.5">
+      <c r="A252" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B252" s="29">
+        <v>1</v>
+      </c>
+      <c r="C252" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="D252" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="E252" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="25.5">
+      <c r="A253" s="15"/>
+      <c r="B253" s="29">
+        <v>2</v>
+      </c>
+      <c r="C253" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="D253" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="E253" s="32"/>
+    </row>
+    <row r="4111" spans="1:1">
+      <c r="A4111" s="12" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Test Conditions and Expected Results CodingtonPortal.xlsx
+++ b/Test Conditions and Expected Results CodingtonPortal.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="234">
   <si>
     <t>Definitions</t>
   </si>
@@ -1708,6 +1708,28 @@
   </si>
   <si>
     <t>Admin select an place and submits the request</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visitor inputs an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">email </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>with unpermitted character (()[]\;:,&lt;&gt; or space )</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2261,6 +2283,13 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2296,13 +2325,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2752,136 +2774,136 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="55"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="58"/>
       <c r="N16" s="36"/>
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58"/>
       <c r="N17" s="36"/>
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="58"/>
       <c r="N18" s="36"/>
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="55"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="58"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="36"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="58"/>
       <c r="N20" s="36"/>
       <c r="O20" s="36"/>
       <c r="P20" s="36"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="58"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2961,12 +2983,12 @@
       <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2988,8 +3010,8 @@
   <dimension ref="A1:E4111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D255" sqref="D255"/>
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3492,7 +3514,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>100</v>
@@ -4614,7 +4636,7 @@
       <c r="A132" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="B132" s="62">
+      <c r="B132" s="50">
         <v>1</v>
       </c>
       <c r="C132" s="39" t="s">
@@ -4627,7 +4649,7 @@
     </row>
     <row r="133" spans="1:5" ht="25.5">
       <c r="A133" s="13"/>
-      <c r="B133" s="62">
+      <c r="B133" s="50">
         <v>2</v>
       </c>
       <c r="C133" s="39" t="s">
@@ -4640,7 +4662,7 @@
     </row>
     <row r="134" spans="1:5" ht="25.5">
       <c r="A134" s="13"/>
-      <c r="B134" s="62">
+      <c r="B134" s="50">
         <v>3</v>
       </c>
       <c r="C134" s="39" t="s">
@@ -4653,7 +4675,7 @@
     </row>
     <row r="135" spans="1:5" ht="25.5">
       <c r="A135" s="13"/>
-      <c r="B135" s="62">
+      <c r="B135" s="50">
         <v>4</v>
       </c>
       <c r="C135" s="39" t="s">
@@ -4666,7 +4688,7 @@
     </row>
     <row r="136" spans="1:5" ht="25.5">
       <c r="A136" s="13"/>
-      <c r="B136" s="62">
+      <c r="B136" s="50">
         <v>5</v>
       </c>
       <c r="C136" s="39" t="s">
@@ -4679,7 +4701,7 @@
     </row>
     <row r="137" spans="1:5" ht="25.5">
       <c r="A137" s="13"/>
-      <c r="B137" s="62">
+      <c r="B137" s="50">
         <v>6</v>
       </c>
       <c r="C137" s="39" t="s">
@@ -4692,7 +4714,7 @@
     </row>
     <row r="138" spans="1:5" ht="25.5">
       <c r="A138" s="13"/>
-      <c r="B138" s="62">
+      <c r="B138" s="50">
         <v>7</v>
       </c>
       <c r="C138" s="39" t="s">
@@ -4705,7 +4727,7 @@
     </row>
     <row r="139" spans="1:5" ht="25.5">
       <c r="A139" s="13"/>
-      <c r="B139" s="62">
+      <c r="B139" s="50">
         <v>8</v>
       </c>
       <c r="C139" s="40" t="s">
@@ -4720,7 +4742,7 @@
     </row>
     <row r="140" spans="1:5" ht="63.75">
       <c r="A140" s="13"/>
-      <c r="B140" s="62">
+      <c r="B140" s="50">
         <v>9</v>
       </c>
       <c r="C140" s="39" t="s">
@@ -4735,7 +4757,7 @@
     </row>
     <row r="141" spans="1:5" ht="63.75">
       <c r="A141" s="13"/>
-      <c r="B141" s="62">
+      <c r="B141" s="50">
         <v>10</v>
       </c>
       <c r="C141" s="39" t="s">
@@ -4750,7 +4772,7 @@
     </row>
     <row r="142" spans="1:5" ht="63.75">
       <c r="A142" s="13"/>
-      <c r="B142" s="62">
+      <c r="B142" s="50">
         <v>11</v>
       </c>
       <c r="C142" s="39" t="s">
@@ -4765,7 +4787,7 @@
     </row>
     <row r="143" spans="1:5" ht="63.75">
       <c r="A143" s="13"/>
-      <c r="B143" s="62">
+      <c r="B143" s="50">
         <v>12</v>
       </c>
       <c r="C143" s="39" t="s">
@@ -4780,7 +4802,7 @@
     </row>
     <row r="144" spans="1:5" ht="51">
       <c r="A144" s="13"/>
-      <c r="B144" s="62">
+      <c r="B144" s="50">
         <v>13</v>
       </c>
       <c r="C144" s="39" t="s">
@@ -4795,7 +4817,7 @@
     </row>
     <row r="145" spans="1:5" ht="63.75">
       <c r="A145" s="13"/>
-      <c r="B145" s="62">
+      <c r="B145" s="50">
         <v>14</v>
       </c>
       <c r="C145" s="39" t="s">
@@ -4810,7 +4832,7 @@
     </row>
     <row r="146" spans="1:5" ht="63.75">
       <c r="A146" s="13"/>
-      <c r="B146" s="62">
+      <c r="B146" s="50">
         <v>15</v>
       </c>
       <c r="C146" s="39" t="s">
@@ -4825,7 +4847,7 @@
     </row>
     <row r="147" spans="1:5" ht="63.75">
       <c r="A147" s="13"/>
-      <c r="B147" s="62">
+      <c r="B147" s="50">
         <v>16</v>
       </c>
       <c r="C147" s="39" t="s">
@@ -4840,7 +4862,7 @@
     </row>
     <row r="148" spans="1:5" ht="63.75">
       <c r="A148" s="13"/>
-      <c r="B148" s="62">
+      <c r="B148" s="50">
         <v>17</v>
       </c>
       <c r="C148" s="39" t="s">
@@ -4855,7 +4877,7 @@
     </row>
     <row r="149" spans="1:5" ht="63.75">
       <c r="A149" s="13"/>
-      <c r="B149" s="62">
+      <c r="B149" s="50">
         <v>18</v>
       </c>
       <c r="C149" s="39" t="s">
@@ -4870,7 +4892,7 @@
     </row>
     <row r="150" spans="1:5" ht="63.75">
       <c r="A150" s="13"/>
-      <c r="B150" s="62">
+      <c r="B150" s="50">
         <v>19</v>
       </c>
       <c r="C150" s="39" t="s">
@@ -4909,7 +4931,7 @@
       <c r="A156" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B156" s="62">
+      <c r="B156" s="50">
         <v>1</v>
       </c>
       <c r="C156" s="39" t="s">
@@ -4922,7 +4944,7 @@
     </row>
     <row r="157" spans="1:5" ht="25.5">
       <c r="A157" s="13"/>
-      <c r="B157" s="62">
+      <c r="B157" s="50">
         <v>2</v>
       </c>
       <c r="C157" s="39" t="s">
@@ -4935,7 +4957,7 @@
     </row>
     <row r="158" spans="1:5" ht="25.5">
       <c r="A158" s="13"/>
-      <c r="B158" s="62">
+      <c r="B158" s="50">
         <v>3</v>
       </c>
       <c r="C158" s="39" t="s">
@@ -4948,7 +4970,7 @@
     </row>
     <row r="159" spans="1:5" ht="25.5">
       <c r="A159" s="13"/>
-      <c r="B159" s="62">
+      <c r="B159" s="50">
         <v>4</v>
       </c>
       <c r="C159" s="39" t="s">
@@ -4961,7 +4983,7 @@
     </row>
     <row r="160" spans="1:5" ht="25.5">
       <c r="A160" s="13"/>
-      <c r="B160" s="62">
+      <c r="B160" s="50">
         <v>5</v>
       </c>
       <c r="C160" s="39" t="s">
@@ -4974,7 +4996,7 @@
     </row>
     <row r="161" spans="1:5" ht="25.5">
       <c r="A161" s="13"/>
-      <c r="B161" s="62">
+      <c r="B161" s="50">
         <v>6</v>
       </c>
       <c r="C161" s="39" t="s">
@@ -4987,7 +5009,7 @@
     </row>
     <row r="162" spans="1:5" ht="25.5">
       <c r="A162" s="13"/>
-      <c r="B162" s="62">
+      <c r="B162" s="50">
         <v>7</v>
       </c>
       <c r="C162" s="39" t="s">
@@ -5000,7 +5022,7 @@
     </row>
     <row r="163" spans="1:5" ht="25.5">
       <c r="A163" s="13"/>
-      <c r="B163" s="62">
+      <c r="B163" s="50">
         <v>8</v>
       </c>
       <c r="C163" s="40" t="s">
@@ -5015,7 +5037,7 @@
     </row>
     <row r="164" spans="1:5" ht="63.75">
       <c r="A164" s="13"/>
-      <c r="B164" s="62">
+      <c r="B164" s="50">
         <v>9</v>
       </c>
       <c r="C164" s="39" t="s">
@@ -5030,7 +5052,7 @@
     </row>
     <row r="165" spans="1:5" ht="63.75">
       <c r="A165" s="13"/>
-      <c r="B165" s="62">
+      <c r="B165" s="50">
         <v>10</v>
       </c>
       <c r="C165" s="39" t="s">
@@ -5045,7 +5067,7 @@
     </row>
     <row r="166" spans="1:5" ht="63.75">
       <c r="A166" s="13"/>
-      <c r="B166" s="62">
+      <c r="B166" s="50">
         <v>11</v>
       </c>
       <c r="C166" s="39" t="s">
@@ -5060,7 +5082,7 @@
     </row>
     <row r="167" spans="1:5" ht="63.75">
       <c r="A167" s="13"/>
-      <c r="B167" s="62">
+      <c r="B167" s="50">
         <v>12</v>
       </c>
       <c r="C167" s="39" t="s">
@@ -5075,7 +5097,7 @@
     </row>
     <row r="168" spans="1:5" ht="51">
       <c r="A168" s="13"/>
-      <c r="B168" s="62">
+      <c r="B168" s="50">
         <v>13</v>
       </c>
       <c r="C168" s="39" t="s">
@@ -5090,7 +5112,7 @@
     </row>
     <row r="169" spans="1:5" ht="63.75">
       <c r="A169" s="13"/>
-      <c r="B169" s="62">
+      <c r="B169" s="50">
         <v>14</v>
       </c>
       <c r="C169" s="39" t="s">
@@ -5105,7 +5127,7 @@
     </row>
     <row r="170" spans="1:5" ht="63.75">
       <c r="A170" s="13"/>
-      <c r="B170" s="62">
+      <c r="B170" s="50">
         <v>15</v>
       </c>
       <c r="C170" s="39" t="s">
@@ -5120,7 +5142,7 @@
     </row>
     <row r="171" spans="1:5" ht="63.75">
       <c r="A171" s="13"/>
-      <c r="B171" s="62">
+      <c r="B171" s="50">
         <v>16</v>
       </c>
       <c r="C171" s="39" t="s">
@@ -5135,7 +5157,7 @@
     </row>
     <row r="172" spans="1:5" ht="63.75">
       <c r="A172" s="13"/>
-      <c r="B172" s="62">
+      <c r="B172" s="50">
         <v>17</v>
       </c>
       <c r="C172" s="39" t="s">
@@ -5150,7 +5172,7 @@
     </row>
     <row r="173" spans="1:5" ht="63.75">
       <c r="A173" s="13"/>
-      <c r="B173" s="62">
+      <c r="B173" s="50">
         <v>18</v>
       </c>
       <c r="C173" s="39" t="s">
@@ -5165,7 +5187,7 @@
     </row>
     <row r="174" spans="1:5" ht="63.75">
       <c r="A174" s="13"/>
-      <c r="B174" s="62">
+      <c r="B174" s="50">
         <v>19</v>
       </c>
       <c r="C174" s="39" t="s">
@@ -5319,7 +5341,7 @@
       <c r="D193" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="E193" s="63" t="s">
+      <c r="E193" s="51" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5334,7 +5356,7 @@
       <c r="D194" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E194" s="64" t="s">
+      <c r="E194" s="52" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5349,7 +5371,7 @@
       <c r="D195" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E195" s="64"/>
+      <c r="E195" s="52"/>
     </row>
     <row r="196" spans="1:5" ht="51">
       <c r="A196" s="13"/>
@@ -5452,7 +5474,7 @@
       <c r="A208" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="B208" s="62">
+      <c r="B208" s="50">
         <v>1</v>
       </c>
       <c r="C208" s="39" t="s">
@@ -5465,7 +5487,7 @@
     </row>
     <row r="209" spans="1:5" ht="25.5">
       <c r="A209" s="13"/>
-      <c r="B209" s="62">
+      <c r="B209" s="50">
         <v>2</v>
       </c>
       <c r="C209" s="39" t="s">
@@ -5478,7 +5500,7 @@
     </row>
     <row r="210" spans="1:5" ht="25.5">
       <c r="A210" s="13"/>
-      <c r="B210" s="62">
+      <c r="B210" s="50">
         <v>3</v>
       </c>
       <c r="C210" s="39" t="s">
@@ -5491,7 +5513,7 @@
     </row>
     <row r="211" spans="1:5" ht="25.5">
       <c r="A211" s="13"/>
-      <c r="B211" s="62">
+      <c r="B211" s="50">
         <v>4</v>
       </c>
       <c r="C211" s="39" t="s">
@@ -5504,7 +5526,7 @@
     </row>
     <row r="212" spans="1:5" ht="25.5">
       <c r="A212" s="13"/>
-      <c r="B212" s="62">
+      <c r="B212" s="50">
         <v>5</v>
       </c>
       <c r="C212" s="39" t="s">
@@ -5517,7 +5539,7 @@
     </row>
     <row r="213" spans="1:5" ht="25.5">
       <c r="A213" s="13"/>
-      <c r="B213" s="62">
+      <c r="B213" s="50">
         <v>6</v>
       </c>
       <c r="C213" s="39" t="s">
@@ -5530,7 +5552,7 @@
     </row>
     <row r="214" spans="1:5" ht="25.5">
       <c r="A214" s="13"/>
-      <c r="B214" s="62">
+      <c r="B214" s="50">
         <v>8</v>
       </c>
       <c r="C214" s="40" t="s">
@@ -5545,7 +5567,7 @@
     </row>
     <row r="215" spans="1:5" ht="63.75">
       <c r="A215" s="13"/>
-      <c r="B215" s="62">
+      <c r="B215" s="50">
         <v>9</v>
       </c>
       <c r="C215" s="39" t="s">
@@ -5560,7 +5582,7 @@
     </row>
     <row r="216" spans="1:5" ht="63.75">
       <c r="A216" s="13"/>
-      <c r="B216" s="62">
+      <c r="B216" s="50">
         <v>10</v>
       </c>
       <c r="C216" s="39" t="s">
@@ -5575,7 +5597,7 @@
     </row>
     <row r="217" spans="1:5" ht="63.75">
       <c r="A217" s="13"/>
-      <c r="B217" s="62">
+      <c r="B217" s="50">
         <v>11</v>
       </c>
       <c r="C217" s="39" t="s">
@@ -5590,7 +5612,7 @@
     </row>
     <row r="218" spans="1:5" ht="63.75">
       <c r="A218" s="13"/>
-      <c r="B218" s="62">
+      <c r="B218" s="50">
         <v>12</v>
       </c>
       <c r="C218" s="39" t="s">
@@ -5605,7 +5627,7 @@
     </row>
     <row r="219" spans="1:5" ht="51">
       <c r="A219" s="13"/>
-      <c r="B219" s="62">
+      <c r="B219" s="50">
         <v>13</v>
       </c>
       <c r="C219" s="39" t="s">
@@ -5620,7 +5642,7 @@
     </row>
     <row r="220" spans="1:5" ht="50.25" customHeight="1">
       <c r="A220" s="13"/>
-      <c r="B220" s="62">
+      <c r="B220" s="50">
         <v>13</v>
       </c>
       <c r="C220" s="39" t="s">
@@ -5635,7 +5657,7 @@
     </row>
     <row r="221" spans="1:5" ht="63.75">
       <c r="A221" s="13"/>
-      <c r="B221" s="62">
+      <c r="B221" s="50">
         <v>14</v>
       </c>
       <c r="C221" s="39" t="s">
@@ -5650,7 +5672,7 @@
     </row>
     <row r="222" spans="1:5" ht="63.75">
       <c r="A222" s="13"/>
-      <c r="B222" s="62">
+      <c r="B222" s="50">
         <v>17</v>
       </c>
       <c r="C222" s="39" t="s">
@@ -5665,7 +5687,7 @@
     </row>
     <row r="223" spans="1:5" ht="63.75">
       <c r="A223" s="13"/>
-      <c r="B223" s="62">
+      <c r="B223" s="50">
         <v>12</v>
       </c>
       <c r="C223" s="39" t="s">
@@ -5704,7 +5726,7 @@
       <c r="A231" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="B231" s="62">
+      <c r="B231" s="50">
         <v>1</v>
       </c>
       <c r="C231" s="39" t="s">
@@ -5717,7 +5739,7 @@
     </row>
     <row r="232" spans="1:5" ht="25.5">
       <c r="A232" s="13"/>
-      <c r="B232" s="62">
+      <c r="B232" s="50">
         <v>2</v>
       </c>
       <c r="C232" s="39" t="s">
@@ -5730,7 +5752,7 @@
     </row>
     <row r="233" spans="1:5" ht="25.5">
       <c r="A233" s="13"/>
-      <c r="B233" s="62">
+      <c r="B233" s="50">
         <v>3</v>
       </c>
       <c r="C233" s="39" t="s">
@@ -5743,7 +5765,7 @@
     </row>
     <row r="234" spans="1:5" ht="25.5">
       <c r="A234" s="13"/>
-      <c r="B234" s="62">
+      <c r="B234" s="50">
         <v>4</v>
       </c>
       <c r="C234" s="39" t="s">
@@ -5756,7 +5778,7 @@
     </row>
     <row r="235" spans="1:5" ht="25.5">
       <c r="A235" s="13"/>
-      <c r="B235" s="62">
+      <c r="B235" s="50">
         <v>5</v>
       </c>
       <c r="C235" s="39" t="s">
@@ -5769,7 +5791,7 @@
     </row>
     <row r="236" spans="1:5" ht="25.5">
       <c r="A236" s="13"/>
-      <c r="B236" s="62">
+      <c r="B236" s="50">
         <v>6</v>
       </c>
       <c r="C236" s="39" t="s">
@@ -5782,7 +5804,7 @@
     </row>
     <row r="237" spans="1:5" ht="25.5">
       <c r="A237" s="13"/>
-      <c r="B237" s="62">
+      <c r="B237" s="50">
         <v>8</v>
       </c>
       <c r="C237" s="40" t="s">
@@ -5797,7 +5819,7 @@
     </row>
     <row r="238" spans="1:5" ht="63.75">
       <c r="A238" s="13"/>
-      <c r="B238" s="62">
+      <c r="B238" s="50">
         <v>9</v>
       </c>
       <c r="C238" s="39" t="s">
@@ -5812,7 +5834,7 @@
     </row>
     <row r="239" spans="1:5" ht="63.75">
       <c r="A239" s="13"/>
-      <c r="B239" s="62">
+      <c r="B239" s="50">
         <v>10</v>
       </c>
       <c r="C239" s="39" t="s">
@@ -5827,7 +5849,7 @@
     </row>
     <row r="240" spans="1:5" ht="63.75">
       <c r="A240" s="13"/>
-      <c r="B240" s="62">
+      <c r="B240" s="50">
         <v>11</v>
       </c>
       <c r="C240" s="39" t="s">
@@ -5842,7 +5864,7 @@
     </row>
     <row r="241" spans="1:5" ht="63.75">
       <c r="A241" s="13"/>
-      <c r="B241" s="62">
+      <c r="B241" s="50">
         <v>12</v>
       </c>
       <c r="C241" s="39" t="s">
@@ -5857,7 +5879,7 @@
     </row>
     <row r="242" spans="1:5" ht="63.75">
       <c r="A242" s="13"/>
-      <c r="B242" s="62">
+      <c r="B242" s="50">
         <v>13</v>
       </c>
       <c r="C242" s="39" t="s">
@@ -5872,7 +5894,7 @@
     </row>
     <row r="243" spans="1:5" ht="63.75">
       <c r="A243" s="13"/>
-      <c r="B243" s="62">
+      <c r="B243" s="50">
         <v>14</v>
       </c>
       <c r="C243" s="39" t="s">
@@ -5887,7 +5909,7 @@
     </row>
     <row r="244" spans="1:5" ht="38.25">
       <c r="A244" s="13"/>
-      <c r="B244" s="62">
+      <c r="B244" s="50">
         <v>15</v>
       </c>
       <c r="C244" s="39" t="s">
@@ -5902,7 +5924,7 @@
     </row>
     <row r="245" spans="1:5" ht="63.75">
       <c r="A245" s="13"/>
-      <c r="B245" s="62">
+      <c r="B245" s="50">
         <v>17</v>
       </c>
       <c r="C245" s="39" t="s">
@@ -5917,7 +5939,7 @@
     </row>
     <row r="246" spans="1:5" ht="63.75">
       <c r="A246" s="13"/>
-      <c r="B246" s="62">
+      <c r="B246" s="50">
         <v>12</v>
       </c>
       <c r="C246" s="39" t="s">
@@ -6693,23 +6715,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Status xmlns="b62c5764-8b9b-429d-81c8-7dc754c5465d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BB721D65A47AAE4DB860A9E8CEE766B4" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="19acc60c8cbcb0fda6ee1e7ae8af0202">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b62c5764-8b9b-429d-81c8-7dc754c5465d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="372b452df986c82da160b570c5ecf664" ns2:_="">
     <xsd:import namespace="b62c5764-8b9b-429d-81c8-7dc754c5465d"/>
@@ -6776,30 +6781,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56744EE8-A62D-410E-B401-491B11CB1E35}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b62c5764-8b9b-429d-81c8-7dc754c5465d"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{256A17FD-57AB-4307-BD12-264A3A64E80F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Status xmlns="b62c5764-8b9b-429d-81c8-7dc754c5465d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA058698-D865-472D-B80A-F93BB701741D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6814,4 +6813,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{256A17FD-57AB-4307-BD12-264A3A64E80F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56744EE8-A62D-410E-B401-491B11CB1E35}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b62c5764-8b9b-429d-81c8-7dc754c5465d"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>